--- a/Заказы/Заказы.xlsx
+++ b/Заказы/Заказы.xlsx
@@ -4,36 +4,37 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="10500" windowHeight="2610"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="10500" windowHeight="2610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Заказы" sheetId="1" r:id="rId1"/>
     <sheet name="Таблица-отчет" sheetId="2" r:id="rId2"/>
-    <sheet name="Разное" sheetId="3" r:id="rId3"/>
+    <sheet name="Цех" sheetId="8" r:id="rId3"/>
     <sheet name="Возможные заказы" sheetId="4" r:id="rId4"/>
-    <sheet name="Поставщики" sheetId="5" r:id="rId5"/>
-    <sheet name="Завершенные" sheetId="6" r:id="rId6"/>
-    <sheet name="Несостоявшиеся" sheetId="7" r:id="rId7"/>
+    <sheet name="Разное" sheetId="3" r:id="rId5"/>
+    <sheet name="Поставщики" sheetId="5" r:id="rId6"/>
+    <sheet name="Завершенные" sheetId="6" r:id="rId7"/>
+    <sheet name="Несостоявшиеся" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Заказы!$A$1:$R$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Заказы!$A$1:$R$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Таблица-отчет'!$A$1:$T$72</definedName>
     <definedName name="Z_7C21AB2F_8371_4768_A121_03485CF32494_.wvu.FilterData" localSheetId="0" hidden="1">Заказы!$A$1:$R$20</definedName>
     <definedName name="Z_7C21AB2F_8371_4768_A121_03485CF32494_.wvu.FilterData" localSheetId="1" hidden="1">'Таблица-отчет'!$A$1:$T$2</definedName>
     <definedName name="Z_8FFC4D0F_FE9E_4710_9596_6E0662A14503_.wvu.FilterData" localSheetId="0" hidden="1">Заказы!$B$1:$R$15</definedName>
-    <definedName name="Z_F21BD4B8_C6FA_422D_B8B2_7C578E87F027_.wvu.FilterData" localSheetId="0" hidden="1">Заказы!$A$1:$R$22</definedName>
-    <definedName name="Z_F21BD4B8_C6FA_422D_B8B2_7C578E87F027_.wvu.FilterData" localSheetId="1" hidden="1">'Таблица-отчет'!$A$1:$T$2</definedName>
+    <definedName name="Z_F21BD4B8_C6FA_422D_B8B2_7C578E87F027_.wvu.FilterData" localSheetId="0" hidden="1">Заказы!$A$1:$R$27</definedName>
+    <definedName name="Z_F21BD4B8_C6FA_422D_B8B2_7C578E87F027_.wvu.FilterData" localSheetId="1" hidden="1">'Таблица-отчет'!$A$1:$T$72</definedName>
   </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
   <customWorkbookViews>
-    <customWorkbookView name="RePack by SPecialiST - Личное представление" guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="543" activeSheetId="1"/>
+    <customWorkbookView name="RePack by SPecialiST - Личное представление" guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="543" activeSheetId="8"/>
     <customWorkbookView name="Home - Личное представление" guid="{7C21AB2F-8371-4768-A121-03485CF32494}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1292" windowHeight="542" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="356">
   <si>
     <t>№</t>
   </si>
@@ -749,21 +750,9 @@
     <t>Этикеровочный аппарат для круглых бутылок, недорогой</t>
   </si>
   <si>
-    <t>Борисполь</t>
-  </si>
-  <si>
-    <t>097-558-26-29</t>
-  </si>
-  <si>
-    <t>54005@mail.ru</t>
-  </si>
-  <si>
     <t>Термокамера</t>
   </si>
   <si>
-    <t>300/210/250</t>
-  </si>
-  <si>
     <t>Позвонить насчет ЗПП-300</t>
   </si>
   <si>
@@ -950,9 +939,6 @@
     <t>Конец июля</t>
   </si>
   <si>
-    <t>Созвон насчет пленки, Закончить техзадание-- Выяснить у игоря ширину пакетп нахлеста и пленки---Позвонить по пленке</t>
-  </si>
-  <si>
     <t>097-454-46-38</t>
   </si>
   <si>
@@ -965,12 +951,6 @@
     <t>Выработает пленку, мб купит у нас на 4 ручья</t>
   </si>
   <si>
-    <t>Звонить---Не дозвонились---Набрать заказчика--Тупиковая камера Баленко</t>
-  </si>
-  <si>
-    <t>*Баленко* должны перезвонить---Набрать заказчика--Созвон с Баленко в 13:30</t>
-  </si>
-  <si>
     <t>Импульсн.Запайщик, Из куска полиет. Сделать ящик</t>
   </si>
   <si>
@@ -989,9 +969,6 @@
     <t>093-884-16-35</t>
   </si>
   <si>
-    <t>ТН-1, ТН-2</t>
-  </si>
-  <si>
     <t>ukrvolosu@mail.ru</t>
   </si>
   <si>
@@ -1007,12 +984,6 @@
     <t>066-403-45-60</t>
   </si>
   <si>
-    <t>Позвонят</t>
-  </si>
-  <si>
-    <t>Позвонить--отправили схему разметки пленки и оборудование</t>
-  </si>
-  <si>
     <t>050-358-24-10</t>
   </si>
   <si>
@@ -1028,9 +999,6 @@
     <t>Транспортер</t>
   </si>
   <si>
-    <t>Узнать высоту загрузки и необходимую производительность. После узнать цену на транспортер и вибролоток, перезвонить</t>
-  </si>
-  <si>
     <t>Владислав Савенков</t>
   </si>
   <si>
@@ -1043,9 +1011,6 @@
     <t>ТТ-15-P, ТТ-15-ПАМ, ТТ-15-ПАП</t>
   </si>
   <si>
-    <t>Созвонится</t>
-  </si>
-  <si>
     <t xml:space="preserve">ООО "ДИЕСА" </t>
   </si>
   <si>
@@ -1053,6 +1018,90 @@
   </si>
   <si>
     <t>Должно быть готово, Приедет на неделе---Узнать у Игоря---созвон</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Позвонит--отправили схему разметки пленки и оборудование</t>
+  </si>
+  <si>
+    <t>Фасовка сахар (5г), потом перец, соль (2г), кофе в стик-пакеты</t>
+  </si>
+  <si>
+    <t>Ждет фасовочный автомат, контроль в среду--Узнать высоту загрузки и необходимую производительность. После узнать цену на транспортер и вибролоток, перезвонить</t>
+  </si>
+  <si>
+    <t>Контроль созвон--Созвонится</t>
+  </si>
+  <si>
+    <t>передали Баленко--*Баленко* должны перезвонить---Набрать заказчика--Созвон с Баленко в 13:30</t>
+  </si>
+  <si>
+    <t>Заработало--Позвонить</t>
+  </si>
+  <si>
+    <t>ТН-1, ТН-2 + ДЖ-250(разливатор) + АЦ-30</t>
+  </si>
+  <si>
+    <t>Позвонят, "палюбому" берут разливатор))</t>
+  </si>
+  <si>
+    <t>Термокамера (или целлофанатор) + ДЖ-250</t>
+  </si>
+  <si>
+    <t>Пацаны не знают чо хотят</t>
+  </si>
+  <si>
+    <t>В процессе---Созвон насчет пленки, Закончить техзадание-- Выяснить у игоря ширину пакетп нахлеста и пленки---Позвонить по пленке</t>
+  </si>
+  <si>
+    <t>Елена Романенко</t>
+  </si>
+  <si>
+    <t>050-353-04-51</t>
+  </si>
+  <si>
+    <t>ТН-1</t>
+  </si>
+  <si>
+    <t>Показать в работе</t>
+  </si>
+  <si>
+    <t>romanenko@fornetti.com.ua</t>
+  </si>
+  <si>
+    <t>Упаковка коробок с пиццой</t>
+  </si>
+  <si>
+    <t>066-325-22-54</t>
+  </si>
+  <si>
+    <t>ПАФ</t>
+  </si>
+  <si>
+    <t>Созвон</t>
+  </si>
+  <si>
+    <t>andrewborotko@gmail.com</t>
+  </si>
+  <si>
+    <t>Ужгород</t>
+  </si>
+  <si>
+    <t>Фасовка конфет в упаковку (поштучно)</t>
+  </si>
+  <si>
+    <t>Кому звонить</t>
+  </si>
+  <si>
+    <t>Что спросить</t>
+  </si>
+  <si>
+    <t>Когда</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1606,18 +1655,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,16 +1667,22 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,18 +1694,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
@@ -1953,6 +1999,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF5357"/>
         </patternFill>
       </fill>
@@ -1968,300 +2028,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2314,6 +2080,2453 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{81F9D345-81BC-4E2E-AF22-B5C7F9DAA906}" diskRevisions="1" revisionId="95" version="10">
+  <header guid="{4F77053A-E5EE-4BD3-B4E1-17E78E7ABB7A}" dateTime="2015-07-15T21:12:44" maxSheetId="8" userName="RePack by SPecialiST" r:id="rId1">
+    <sheetIdMap count="7">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F80C90B9-B2FE-4A5D-AFFA-ABEBF4073EE7}" dateTime="2015-07-15T22:27:31" maxSheetId="8" userName="RePack by SPecialiST" r:id="rId2" minRId="1" maxRId="3">
+    <sheetIdMap count="7">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{80D99DCE-BAFA-4FAF-BE94-BDA1D84147DF}" dateTime="2015-07-16T10:56:36" maxSheetId="8" userName="RePack by SPecialiST" r:id="rId3" minRId="4" maxRId="15">
+    <sheetIdMap count="7">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{299B1971-55E9-400C-8836-04CD41B41C08}" dateTime="2015-07-16T11:45:21" maxSheetId="8" userName="RePack by SPecialiST" r:id="rId4" minRId="16" maxRId="19">
+    <sheetIdMap count="7">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{73B81238-EDB4-4561-9CEB-F61477398DF5}" dateTime="2015-07-16T12:16:50" maxSheetId="8" userName="RePack by SPecialiST" r:id="rId5" minRId="20" maxRId="25">
+    <sheetIdMap count="7">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5B02CEB5-49D1-47A0-A5EB-B8479287C0B3}" dateTime="2015-07-16T12:23:25" maxSheetId="9" userName="RePack by SPecialiST" r:id="rId6" minRId="26" maxRId="45">
+    <sheetIdMap count="8">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="4"/>
+      <sheetId val="8"/>
+      <sheetId val="3"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{335B2E52-1855-4896-B8C2-3FFBD56372BC}" dateTime="2015-07-16T12:49:07" maxSheetId="9" userName="RePack by SPecialiST" r:id="rId7" minRId="48">
+    <sheetIdMap count="8">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="8"/>
+      <sheetId val="4"/>
+      <sheetId val="3"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C4BE1190-6F87-4A17-817F-B8F6F2E01927}" dateTime="2015-07-16T17:34:23" maxSheetId="9" userName="RePack by SPecialiST" r:id="rId8" minRId="49" maxRId="53">
+    <sheetIdMap count="8">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="8"/>
+      <sheetId val="4"/>
+      <sheetId val="3"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{501A3241-D6CC-4D3C-9604-8AEC793B352C}" dateTime="2015-07-16T17:46:24" maxSheetId="9" userName="RePack by SPecialiST" r:id="rId9" minRId="54" maxRId="71">
+    <sheetIdMap count="8">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="8"/>
+      <sheetId val="4"/>
+      <sheetId val="3"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{81F9D345-81BC-4E2E-AF22-B5C7F9DAA906}" dateTime="2015-07-16T17:58:07" maxSheetId="9" userName="RePack by SPecialiST" r:id="rId10" minRId="72" maxRId="93">
+    <sheetIdMap count="8">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="8"/>
+      <sheetId val="4"/>
+      <sheetId val="3"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="72" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Телефон</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="73" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Напоминание</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="74" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Ф.И.О.</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="75" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Наше предложение</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="76" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="77" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Почта</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="78" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="79" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Город</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="80" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Задача</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="81" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Особенности</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="82" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Дата контакта</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="83" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Дата заказа (предоплаты)</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="84" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Код УТ</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="85" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Дата выполнения</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="86" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Дата сдачи (окончание сделки)</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="87" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Фирма</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="88" sId="8" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="8" xfDxf="1" sqref="A1:A1048576" start="0" length="0"/>
+    <rcc rId="0" sId="8" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="0"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor theme="6"/>
+            <bgColor theme="6"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rcc rId="89" sId="8">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>№</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="8" sqref="B1">
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="90" sId="8">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Кому звонить</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="91" sId="8">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Что спросить</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="8">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Когда</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="93" sId="8">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Заказчик</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F21BD4B8_C6FA_422D_B8B2_7C578E87F027_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Заказы!$A$1:$R$27</formula>
+    <oldFormula>Заказы!$A$1:$R$27</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_F21BD4B8_C6FA_422D_B8B2_7C578E87F027_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Таблица-отчет'!$A$1:$T$72</formula>
+    <oldFormula>'Таблица-отчет'!$A$1:$T$72</oldFormula>
+  </rdn>
+  <rcv guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="4">
+    <oc r="E5" t="inlineStr">
+      <is>
+        <t>*Баленко* должны перезвонить---Набрать заказчика--Созвон с Баленко в 13:30</t>
+      </is>
+    </oc>
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>позвонить Баленко--*Баленко* должны перезвонить---Набрать заказчика--Созвон с Баленко в 13:30</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="4" numFmtId="19">
+    <oc r="B5">
+      <v>42200</v>
+    </oc>
+    <nc r="B5">
+      <v>42201</v>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="4">
+    <oc r="E6" t="inlineStr">
+      <is>
+        <t>Звонить---Не дозвонились---Набрать заказчика--Тупиковая камера Баленко</t>
+      </is>
+    </oc>
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>Не дозвонились---Набрать заказчика--Тупиковая камера Баленко</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="6" sqref="S1" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="T1" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="S2" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="T2" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="S3" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="T3" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="S4" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="T4" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="S5" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="T5" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="S6" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="T6" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="S7" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="T7" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="4" sId="6">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>Прибыль</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="6">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>%</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="6" sheetId="6" source="S1:T7" destination="U1:V7" sourceSheetId="6"/>
+  <rm rId="7" sheetId="6" source="A1:R7" destination="C1:T7" sourceSheetId="6"/>
+  <rm rId="8" sheetId="6" source="U1:V7" destination="A1:B7" sourceSheetId="6"/>
+  <rcc rId="9" sId="6" odxf="1" dxf="1" numFmtId="13">
+    <nc r="B2">
+      <v>0.1</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="10" sId="6">
+    <nc r="A2">
+      <f>I2*B2</f>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="6">
+    <nc r="A3">
+      <v>4000</v>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="6" odxf="1" dxf="1" numFmtId="13">
+    <nc r="B4">
+      <v>0.1</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="13" sId="6">
+    <nc r="A4">
+      <f>I4*B4</f>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="6" odxf="1" dxf="1" numFmtId="13">
+    <nc r="B5">
+      <v>0.1</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="15" sId="6" odxf="1" dxf="1">
+    <nc r="A5">
+      <f>I5*B5</f>
+    </nc>
+    <ndxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="16" sId="1">
+    <oc r="E25" t="inlineStr">
+      <is>
+        <t>Позвонить--отправили схему разметки пленки и оборудование</t>
+      </is>
+    </oc>
+    <nc r="E25" t="inlineStr">
+      <is>
+        <t>Позвонит--отправили схему разметки пленки и оборудование</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="1">
+    <oc r="I25" t="inlineStr">
+      <is>
+        <t>Фасовка кофе, сахар в стик-пакеты</t>
+      </is>
+    </oc>
+    <nc r="I25" t="inlineStr">
+      <is>
+        <t>Фасовка сахар (5г), потом перец, соль (2г), кофе в стик-пакеты</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="1">
+    <oc r="E26" t="inlineStr">
+      <is>
+        <t>Узнать высоту загрузки и необходимую производительность. После узнать цену на транспортер и вибролоток, перезвонить</t>
+      </is>
+    </oc>
+    <nc r="E26" t="inlineStr">
+      <is>
+        <t>Ждет фасовочный автомат, контроль в среду--Узнать высоту загрузки и необходимую производительность. После узнать цену на транспортер и вибролоток, перезвонить</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="1" numFmtId="19">
+    <oc r="B26">
+      <v>42201</v>
+    </oc>
+    <nc r="B26">
+      <v>42207</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="20" sId="1">
+    <oc r="E27" t="inlineStr">
+      <is>
+        <t>Созвонится</t>
+      </is>
+    </oc>
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>Контроль созвон--Созвонится</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="1" numFmtId="19">
+    <oc r="B27">
+      <v>42201</v>
+    </oc>
+    <nc r="B27">
+      <v>42202</v>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="4">
+    <oc r="E5" t="inlineStr">
+      <is>
+        <t>позвонить Баленко--*Баленко* должны перезвонить---Набрать заказчика--Созвон с Баленко в 13:30</t>
+      </is>
+    </oc>
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>передали Баленко--*Баленко* должны перезвонить---Набрать заказчика--Созвон с Баленко в 13:30</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="4" numFmtId="19">
+    <oc r="B5">
+      <v>42201</v>
+    </oc>
+    <nc r="B5"/>
+  </rcc>
+  <rcc rId="24" sId="4">
+    <oc r="E6" t="inlineStr">
+      <is>
+        <t>Не дозвонились---Набрать заказчика--Тупиковая камера Баленко</t>
+      </is>
+    </oc>
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>передали Баленко---Набрать заказчика--Тупиковая камера Баленко</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="4" numFmtId="19">
+    <oc r="B6">
+      <v>42200</v>
+    </oc>
+    <nc r="B6"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="26" sheetId="8" name="[Заказы.xlsx]Цех" sheetPosition="7"/>
+  <rcc rId="27" sId="8" odxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Телефон</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="28" sId="8" odxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Напоминание</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="29" sId="8" odxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Ф.И.О.</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="30" sId="8" odxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Наше предложение</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="31" sId="8" odxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Статус</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="32" sId="8" odxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>Почта</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="33" sId="8" odxf="1" dxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Цена</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="34" sId="8" odxf="1" dxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>Город</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="35" sId="8" odxf="1" dxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>Задача</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="36" sId="8" odxf="1" dxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>Особенности</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="37" sId="8" odxf="1" dxf="1">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>Дата контакта</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="38" sId="8" odxf="1" dxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>Дата заказа (предоплаты)</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="39" sId="8" odxf="1" dxf="1">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>Код УТ</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="40" sId="8" odxf="1" dxf="1">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>Дата выполнения</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="41" sId="8" odxf="1" dxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>Дата сдачи (окончание сделки)</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="42" sId="8" odxf="1" dxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>Фирма</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="43" sId="8" odxf="1" dxf="1">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>№</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="44" sId="3" numFmtId="19">
+    <oc r="B3">
+      <v>42193</v>
+    </oc>
+    <nc r="B3"/>
+  </rcc>
+  <rcc rId="45" sId="3">
+    <oc r="E3" t="inlineStr">
+      <is>
+        <t>Позвонить</t>
+      </is>
+    </oc>
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Заработало--Позвонить</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F21BD4B8_C6FA_422D_B8B2_7C578E87F027_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Заказы!$A$1:$R$27</formula>
+    <oldFormula>Заказы!$A$1:$R$22</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_F21BD4B8_C6FA_422D_B8B2_7C578E87F027_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Таблица-отчет'!$A$1:$T$72</formula>
+    <oldFormula>'Таблица-отчет'!$A$1:$T$72</oldFormula>
+  </rdn>
+  <rcv guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="48" sId="4" ref="A6:XFD6" action="deleteRow">
+    <rfmt sheetId="4" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
+    <rfmt sheetId="4" sqref="A6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="B6" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="C6" t="inlineStr">
+        <is>
+          <t>Олег</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="4" sqref="D6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="E6" t="inlineStr">
+        <is>
+          <t>передали Баленко---Набрать заказчика--Тупиковая камера Баленко</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="F6" t="inlineStr">
+        <is>
+          <t>097-558-26-29</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="G6" t="inlineStr">
+        <is>
+          <t>54005@mail.ru</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="H6" t="inlineStr">
+        <is>
+          <t>Термокамера</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="I6" t="inlineStr">
+        <is>
+          <t>300/210/250</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="4" sqref="J6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="K6" t="inlineStr">
+        <is>
+          <t>Борисполь</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="4" sqref="L6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="M6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="N6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="O6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="P6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="Q6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="R6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="S6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="T6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="U6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" sqref="V6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="49" sId="1">
+    <oc r="D24" t="inlineStr">
+      <is>
+        <t>ТН-1, ТН-2</t>
+      </is>
+    </oc>
+    <nc r="D24" t="inlineStr">
+      <is>
+        <t>ТН-1, ТН-2 + ДЖ-250(разливатор) + АЦ-30</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="1">
+    <oc r="E24" t="inlineStr">
+      <is>
+        <t>Позвонят</t>
+      </is>
+    </oc>
+    <nc r="E24" t="inlineStr">
+      <is>
+        <t>Позвонят, "палюбому" берут разливатор))</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="51" sId="1">
+    <nc r="H24" t="inlineStr">
+      <is>
+        <t>Киев</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="1">
+    <oc r="I24" t="inlineStr">
+      <is>
+        <t>Термокамера</t>
+      </is>
+    </oc>
+    <nc r="I24" t="inlineStr">
+      <is>
+        <t>Термокамера (или целлофанатор) + ДЖ-250</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="1">
+    <nc r="J24" t="inlineStr">
+      <is>
+        <t>Пацаны не знают чо хотят</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="54" sId="1">
+    <oc r="E17" t="inlineStr">
+      <is>
+        <t>Созвон насчет пленки, Закончить техзадание-- Выяснить у игоря ширину пакетп нахлеста и пленки---Позвонить по пленке</t>
+      </is>
+    </oc>
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>В процессе---Созвон насчет пленки, Закончить техзадание-- Выяснить у игоря ширину пакетп нахлеста и пленки---Позвонить по пленке</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="1">
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t>Елена Романенко</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="1">
+    <nc r="A28" t="inlineStr">
+      <is>
+        <t>050-353-04-51</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="1">
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>ТН-1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="1">
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>Показать в работе</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="59" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B28">
+      <v>42202</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="60" sId="1">
+    <nc r="F28" t="inlineStr">
+      <is>
+        <t>romanenko@fornetti.com.ua</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="1">
+    <nc r="I28" t="inlineStr">
+      <is>
+        <t>Упаковка коробок с пиццой</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="K28">
+      <v>42201</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="63" sId="1">
+    <nc r="A29" t="inlineStr">
+      <is>
+        <t>066-325-22-54</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="64" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B29">
+      <v>42202</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="65" sId="1">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>Андрей</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="66" sId="1">
+    <nc r="D29" t="inlineStr">
+      <is>
+        <t>ПАФ</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="67" sId="1">
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>Созвон</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="68" sId="1">
+    <nc r="F29" t="inlineStr">
+      <is>
+        <t>andrewborotko@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="69" sId="1">
+    <nc r="H29" t="inlineStr">
+      <is>
+        <t>Ужгород</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="H1:H1048576">
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="H1:H1048576">
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="H1:H1048576">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="H1:H1048576">
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="70" sId="1">
+    <nc r="I29" t="inlineStr">
+      <is>
+        <t>Фасовка конфет в упаковку (поштучно)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="71" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="K29">
+      <v>42201</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+  <userInfo guid="{4F77053A-E5EE-4BD3-B4E1-17E78E7ABB7A}" name="RePack by SPecialiST" id="-1466176968" dateTime="2015-07-15T21:12:44"/>
+  <userInfo guid="{F80C90B9-B2FE-4A5D-AFFA-ABEBF4073EE7}" name="RePack by SPecialiST" id="-1466231453" dateTime="2015-07-15T21:15:40"/>
+  <userInfo guid="{81F9D345-81BC-4E2E-AF22-B5C7F9DAA906}" name="RePack by SPecialiST" id="-1466180558" dateTime="2015-07-16T10:00:43"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2605,11 +4818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,10 +4831,10 @@
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="51" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31" style="2" customWidth="1"/>
     <col min="6" max="6" width="29" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="52" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="29.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="3" customWidth="1"/>
@@ -2704,7 +4917,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>137</v>
@@ -2723,13 +4936,13 @@
         <v>42158</v>
       </c>
       <c r="L2" s="58" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M2" s="59">
         <v>2592</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O2" s="59"/>
       <c r="P2" s="57" t="s">
@@ -2743,16 +4956,16 @@
         <v>220</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C3" s="60" t="s">
         <v>134</v>
       </c>
       <c r="D3" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="62" t="s">
         <v>292</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>296</v>
       </c>
       <c r="F3" s="63" t="s">
         <v>221</v>
@@ -2832,7 +5045,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F5" s="63" t="s">
         <v>81</v>
@@ -2868,7 +5081,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F6" s="64" t="s">
         <v>149</v>
@@ -2883,7 +5096,7 @@
         <v>198</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K6" s="65">
         <v>42133</v>
@@ -2960,7 +5173,7 @@
         <v>127</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F8" s="64" t="s">
         <v>125</v>
@@ -2991,16 +5204,16 @@
         <v>159</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F9" s="64" t="s">
         <v>157</v>
@@ -3008,7 +5221,7 @@
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
       <c r="I9" s="66" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J9" s="66" t="s">
         <v>158</v>
@@ -3038,7 +5251,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="62">
@@ -3061,7 +5274,7 @@
         <v>2405</v>
       </c>
       <c r="N10" s="62" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O10" s="62"/>
       <c r="P10" s="60"/>
@@ -3082,7 +5295,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>44</v>
@@ -3114,23 +5327,23 @@
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
       <c r="I12" s="66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J12" s="66"/>
       <c r="K12" s="65">
@@ -3158,7 +5371,7 @@
         <v>213</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F13" s="60" t="s">
         <v>212</v>
@@ -3185,7 +5398,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>53</v>
@@ -3194,7 +5407,7 @@
         <v>58</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F14" s="60" t="s">
         <v>56</v>
@@ -3224,19 +5437,19 @@
     </row>
     <row r="15" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>152</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>155</v>
@@ -3264,29 +5477,29 @@
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="68" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B16" s="65">
         <v>42206</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G16" s="66"/>
       <c r="H16" s="66" t="s">
         <v>234</v>
       </c>
       <c r="I16" s="66" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J16" s="66"/>
       <c r="K16" s="65">
@@ -3300,7 +5513,7 @@
       <c r="Q16" s="66"/>
       <c r="R16" s="66"/>
     </row>
-    <row r="17" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="68" t="s">
         <v>15</v>
       </c>
@@ -3314,7 +5527,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="F17" s="66" t="s">
         <v>39</v>
@@ -3329,7 +5542,7 @@
         <v>14</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K17" s="65">
         <v>42177</v>
@@ -3354,22 +5567,22 @@
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B18" s="61">
         <v>42201</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D18" s="62" t="s">
         <v>206</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G18" s="62"/>
       <c r="H18" s="62" t="s">
@@ -3408,7 +5621,7 @@
         <v>145</v>
       </c>
       <c r="E19" s="66" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F19" s="64" t="s">
         <v>148</v>
@@ -3440,7 +5653,7 @@
       <c r="Q19" s="66"/>
       <c r="R19" s="66"/>
     </row>
-    <row r="20" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>66</v>
       </c>
@@ -3454,7 +5667,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="62"/>
@@ -3478,29 +5691,29 @@
     </row>
     <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B21" s="65">
         <v>42199</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D21" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="F21" s="66" t="s">
         <v>272</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>276</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="64" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J21" s="64"/>
       <c r="K21" s="65">
@@ -3516,23 +5729,23 @@
     </row>
     <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B22" s="71">
         <v>42199</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="73" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="73"/>
       <c r="H22" s="72"/>
       <c r="I22" s="72" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J22" s="72"/>
       <c r="K22" s="71">
@@ -3547,8 +5760,8 @@
       <c r="R22" s="73"/>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
-        <v>315</v>
+      <c r="A23" s="85" t="s">
+        <v>308</v>
       </c>
       <c r="B23" s="74"/>
       <c r="C23" s="64" t="s">
@@ -3556,7 +5769,7 @@
       </c>
       <c r="D23" s="66"/>
       <c r="E23" s="66" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F23" s="74"/>
       <c r="G23" s="76"/>
@@ -3564,12 +5777,12 @@
         <v>60</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J23" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="K23" s="92">
+        <v>307</v>
+      </c>
+      <c r="K23" s="88">
         <v>42200</v>
       </c>
       <c r="L23" s="74"/>
@@ -3580,32 +5793,36 @@
       <c r="Q23" s="66"/>
       <c r="R23" s="74"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="91">
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="87">
         <v>42200</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F24" s="75" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G24" s="79"/>
-      <c r="H24" s="81"/>
+      <c r="H24" s="81" t="s">
+        <v>60</v>
+      </c>
       <c r="I24" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="J24" s="81"/>
-      <c r="K24" s="91">
+        <v>338</v>
+      </c>
+      <c r="J24" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="K24" s="87">
         <v>42200</v>
       </c>
       <c r="L24" s="75"/>
@@ -3617,33 +5834,33 @@
       <c r="R24" s="75"/>
     </row>
     <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
-        <v>323</v>
-      </c>
-      <c r="B25" s="92">
+      <c r="A25" s="85" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="88">
         <v>42201</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E25" s="66" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F25" s="74" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G25" s="76"/>
       <c r="H25" s="78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="J25" s="78"/>
-      <c r="K25" s="92">
+      <c r="K25" s="88">
         <v>42200</v>
       </c>
       <c r="L25" s="74"/>
@@ -3654,34 +5871,34 @@
       <c r="Q25" s="66"/>
       <c r="R25" s="74"/>
     </row>
-    <row r="26" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
-        <v>326</v>
-      </c>
-      <c r="B26" s="91">
-        <v>42201</v>
+    <row r="26" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="87">
+        <v>42207</v>
       </c>
       <c r="C26" s="60" t="s">
         <v>167</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G26" s="79"/>
       <c r="H26" s="81"/>
       <c r="I26" s="60" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="J26" s="81" t="s">
-        <v>328</v>
-      </c>
-      <c r="K26" s="91">
+        <v>318</v>
+      </c>
+      <c r="K26" s="87">
         <v>42200</v>
       </c>
       <c r="L26" s="75"/>
@@ -3693,33 +5910,33 @@
       <c r="R26" s="75"/>
     </row>
     <row r="27" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="85" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" s="88">
+        <v>42202</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="B27" s="92">
-        <v>42201</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>332</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>336</v>
-      </c>
       <c r="F27" s="74" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G27" s="76"/>
       <c r="H27" s="78" t="s">
         <v>60</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J27" s="78"/>
-      <c r="K27" s="92">
+      <c r="K27" s="88">
         <v>42200</v>
       </c>
       <c r="L27" s="74"/>
@@ -3727,23 +5944,39 @@
       <c r="N27" s="66"/>
       <c r="O27" s="74"/>
       <c r="P27" s="66" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="Q27" s="66"/>
       <c r="R27" s="74"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="75"/>
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="B28" s="87">
+        <v>42202</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>345</v>
+      </c>
       <c r="G28" s="79"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="60"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="60" t="s">
+        <v>346</v>
+      </c>
       <c r="J28" s="81"/>
-      <c r="K28" s="75"/>
+      <c r="K28" s="87">
+        <v>42201</v>
+      </c>
       <c r="L28" s="75"/>
       <c r="M28" s="62"/>
       <c r="N28" s="62"/>
@@ -3752,18 +5985,36 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="75"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="74"/>
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="88">
+        <v>42202</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>350</v>
+      </c>
       <c r="G29" s="76"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>352</v>
+      </c>
       <c r="J29" s="78"/>
-      <c r="K29" s="74"/>
+      <c r="K29" s="87">
+        <v>42201</v>
+      </c>
       <c r="L29" s="74"/>
       <c r="M29" s="66"/>
       <c r="N29" s="66"/>
@@ -3773,14 +6024,14 @@
       <c r="R29" s="74"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="75"/>
       <c r="C30" s="60"/>
       <c r="D30" s="62"/>
       <c r="E30" s="62"/>
       <c r="F30" s="75"/>
       <c r="G30" s="79"/>
-      <c r="H30" s="85"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="60"/>
       <c r="J30" s="81"/>
       <c r="K30" s="75"/>
@@ -3793,14 +6044,14 @@
       <c r="R30" s="75"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="74"/>
       <c r="C31" s="64"/>
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
       <c r="F31" s="74"/>
       <c r="G31" s="76"/>
-      <c r="H31" s="86"/>
+      <c r="H31" s="78"/>
       <c r="I31" s="64"/>
       <c r="J31" s="78"/>
       <c r="K31" s="74"/>
@@ -3813,14 +6064,14 @@
       <c r="R31" s="74"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="75"/>
       <c r="C32" s="60"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
       <c r="F32" s="75"/>
       <c r="G32" s="79"/>
-      <c r="H32" s="85"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="60"/>
       <c r="J32" s="81"/>
       <c r="K32" s="75"/>
@@ -3833,14 +6084,14 @@
       <c r="R32" s="75"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="74"/>
       <c r="C33" s="64"/>
       <c r="D33" s="66"/>
       <c r="E33" s="66"/>
       <c r="F33" s="74"/>
       <c r="G33" s="77"/>
-      <c r="H33" s="86"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="64"/>
       <c r="J33" s="74"/>
       <c r="K33" s="74"/>
@@ -3853,14 +6104,14 @@
       <c r="R33" s="74"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="75"/>
       <c r="C34" s="60"/>
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
       <c r="F34" s="81"/>
       <c r="G34" s="80"/>
-      <c r="H34" s="85"/>
+      <c r="H34" s="81"/>
       <c r="I34" s="62"/>
       <c r="J34" s="75"/>
       <c r="K34" s="75"/>
@@ -3873,14 +6124,14 @@
       <c r="R34" s="75"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="74"/>
       <c r="C35" s="64"/>
       <c r="D35" s="66"/>
       <c r="E35" s="66"/>
       <c r="F35" s="78"/>
       <c r="G35" s="77"/>
-      <c r="H35" s="86"/>
+      <c r="H35" s="78"/>
       <c r="I35" s="66"/>
       <c r="J35" s="74"/>
       <c r="K35" s="74"/>
@@ -3893,14 +6144,14 @@
       <c r="R35" s="74"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="75"/>
       <c r="C36" s="60"/>
       <c r="D36" s="62"/>
       <c r="E36" s="62"/>
       <c r="F36" s="81"/>
       <c r="G36" s="80"/>
-      <c r="H36" s="85"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="62"/>
       <c r="J36" s="75"/>
       <c r="K36" s="75"/>
@@ -3913,14 +6164,14 @@
       <c r="R36" s="75"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="74"/>
       <c r="C37" s="64"/>
       <c r="D37" s="66"/>
       <c r="E37" s="66"/>
       <c r="F37" s="78"/>
       <c r="G37" s="77"/>
-      <c r="H37" s="86"/>
+      <c r="H37" s="78"/>
       <c r="I37" s="66"/>
       <c r="J37" s="74"/>
       <c r="K37" s="74"/>
@@ -3933,14 +6184,14 @@
       <c r="R37" s="74"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="75"/>
       <c r="C38" s="60"/>
       <c r="D38" s="62"/>
       <c r="E38" s="62"/>
       <c r="F38" s="81"/>
       <c r="G38" s="80"/>
-      <c r="H38" s="85"/>
+      <c r="H38" s="81"/>
       <c r="I38" s="62"/>
       <c r="J38" s="75"/>
       <c r="K38" s="75"/>
@@ -3953,14 +6204,14 @@
       <c r="R38" s="75"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="74"/>
       <c r="C39" s="64"/>
       <c r="D39" s="66"/>
       <c r="E39" s="66"/>
       <c r="F39" s="78"/>
       <c r="G39" s="77"/>
-      <c r="H39" s="86"/>
+      <c r="H39" s="78"/>
       <c r="I39" s="66"/>
       <c r="J39" s="74"/>
       <c r="K39" s="74"/>
@@ -3973,14 +6224,14 @@
       <c r="R39" s="74"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="75"/>
       <c r="C40" s="60"/>
       <c r="D40" s="62"/>
       <c r="E40" s="62"/>
       <c r="F40" s="81"/>
       <c r="G40" s="80"/>
-      <c r="H40" s="85"/>
+      <c r="H40" s="81"/>
       <c r="I40" s="62"/>
       <c r="J40" s="75"/>
       <c r="K40" s="75"/>
@@ -3993,14 +6244,14 @@
       <c r="R40" s="75"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="74"/>
       <c r="C41" s="64"/>
       <c r="D41" s="66"/>
       <c r="E41" s="66"/>
       <c r="F41" s="78"/>
       <c r="G41" s="77"/>
-      <c r="H41" s="86"/>
+      <c r="H41" s="78"/>
       <c r="I41" s="66"/>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
@@ -4013,14 +6264,14 @@
       <c r="R41" s="74"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="75"/>
       <c r="C42" s="60"/>
       <c r="D42" s="62"/>
       <c r="E42" s="62"/>
       <c r="F42" s="81"/>
       <c r="G42" s="80"/>
-      <c r="H42" s="85"/>
+      <c r="H42" s="81"/>
       <c r="I42" s="62"/>
       <c r="J42" s="75"/>
       <c r="K42" s="75"/>
@@ -4033,14 +6284,14 @@
       <c r="R42" s="75"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="74"/>
       <c r="C43" s="64"/>
       <c r="D43" s="66"/>
       <c r="E43" s="66"/>
       <c r="F43" s="78"/>
       <c r="G43" s="77"/>
-      <c r="H43" s="86"/>
+      <c r="H43" s="78"/>
       <c r="I43" s="66"/>
       <c r="J43" s="74"/>
       <c r="K43" s="74"/>
@@ -4053,14 +6304,14 @@
       <c r="R43" s="74"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
+      <c r="A44" s="86"/>
       <c r="B44" s="75"/>
       <c r="C44" s="60"/>
       <c r="D44" s="62"/>
       <c r="E44" s="62"/>
       <c r="F44" s="81"/>
       <c r="G44" s="80"/>
-      <c r="H44" s="85"/>
+      <c r="H44" s="81"/>
       <c r="I44" s="62"/>
       <c r="J44" s="75"/>
       <c r="K44" s="75"/>
@@ -4073,14 +6324,14 @@
       <c r="R44" s="75"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="74"/>
       <c r="C45" s="64"/>
       <c r="D45" s="66"/>
       <c r="E45" s="66"/>
       <c r="F45" s="78"/>
       <c r="G45" s="77"/>
-      <c r="H45" s="86"/>
+      <c r="H45" s="78"/>
       <c r="I45" s="66"/>
       <c r="J45" s="74"/>
       <c r="K45" s="74"/>
@@ -4093,14 +6344,14 @@
       <c r="R45" s="74"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="75"/>
       <c r="C46" s="60"/>
       <c r="D46" s="62"/>
       <c r="E46" s="62"/>
       <c r="F46" s="81"/>
       <c r="G46" s="80"/>
-      <c r="H46" s="85"/>
+      <c r="H46" s="81"/>
       <c r="I46" s="62"/>
       <c r="J46" s="75"/>
       <c r="K46" s="75"/>
@@ -4113,14 +6364,14 @@
       <c r="R46" s="75"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="89"/>
+      <c r="A47" s="85"/>
       <c r="B47" s="74"/>
       <c r="C47" s="64"/>
       <c r="D47" s="66"/>
       <c r="E47" s="66"/>
       <c r="F47" s="78"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="86"/>
+      <c r="H47" s="78"/>
       <c r="I47" s="66"/>
       <c r="J47" s="74"/>
       <c r="K47" s="74"/>
@@ -4133,14 +6384,14 @@
       <c r="R47" s="74"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
+      <c r="A48" s="86"/>
       <c r="B48" s="75"/>
       <c r="C48" s="60"/>
       <c r="D48" s="62"/>
       <c r="E48" s="62"/>
       <c r="F48" s="81"/>
       <c r="G48" s="80"/>
-      <c r="H48" s="85"/>
+      <c r="H48" s="81"/>
       <c r="I48" s="62"/>
       <c r="J48" s="75"/>
       <c r="K48" s="75"/>
@@ -4153,14 +6404,14 @@
       <c r="R48" s="75"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="74"/>
       <c r="C49" s="64"/>
       <c r="D49" s="66"/>
       <c r="E49" s="66"/>
       <c r="F49" s="78"/>
       <c r="G49" s="77"/>
-      <c r="H49" s="86"/>
+      <c r="H49" s="78"/>
       <c r="I49" s="66"/>
       <c r="J49" s="74"/>
       <c r="K49" s="74"/>
@@ -4173,14 +6424,14 @@
       <c r="R49" s="74"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
+      <c r="A50" s="86"/>
       <c r="B50" s="75"/>
       <c r="C50" s="60"/>
       <c r="D50" s="62"/>
       <c r="E50" s="62"/>
       <c r="F50" s="81"/>
       <c r="G50" s="80"/>
-      <c r="H50" s="85"/>
+      <c r="H50" s="81"/>
       <c r="I50" s="62"/>
       <c r="J50" s="75"/>
       <c r="K50" s="75"/>
@@ -4193,14 +6444,14 @@
       <c r="R50" s="75"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="89"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="74"/>
       <c r="C51" s="64"/>
       <c r="D51" s="66"/>
       <c r="E51" s="66"/>
       <c r="F51" s="78"/>
       <c r="G51" s="77"/>
-      <c r="H51" s="86"/>
+      <c r="H51" s="78"/>
       <c r="I51" s="66"/>
       <c r="J51" s="74"/>
       <c r="K51" s="74"/>
@@ -4213,14 +6464,14 @@
       <c r="R51" s="74"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
+      <c r="A52" s="86"/>
       <c r="B52" s="75"/>
       <c r="C52" s="60"/>
       <c r="D52" s="62"/>
       <c r="E52" s="62"/>
       <c r="F52" s="81"/>
       <c r="G52" s="80"/>
-      <c r="H52" s="85"/>
+      <c r="H52" s="81"/>
       <c r="I52" s="62"/>
       <c r="J52" s="75"/>
       <c r="K52" s="75"/>
@@ -4233,14 +6484,14 @@
       <c r="R52" s="75"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="89"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="74"/>
       <c r="C53" s="64"/>
       <c r="D53" s="66"/>
       <c r="E53" s="66"/>
       <c r="F53" s="78"/>
       <c r="G53" s="77"/>
-      <c r="H53" s="86"/>
+      <c r="H53" s="78"/>
       <c r="I53" s="66"/>
       <c r="J53" s="74"/>
       <c r="K53" s="74"/>
@@ -4253,14 +6504,14 @@
       <c r="R53" s="74"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
+      <c r="A54" s="86"/>
       <c r="B54" s="75"/>
       <c r="C54" s="60"/>
       <c r="D54" s="62"/>
       <c r="E54" s="62"/>
       <c r="F54" s="81"/>
       <c r="G54" s="80"/>
-      <c r="H54" s="85"/>
+      <c r="H54" s="81"/>
       <c r="I54" s="62"/>
       <c r="J54" s="75"/>
       <c r="K54" s="75"/>
@@ -4273,14 +6524,14 @@
       <c r="R54" s="75"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="89"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="74"/>
       <c r="C55" s="64"/>
       <c r="D55" s="66"/>
       <c r="E55" s="66"/>
       <c r="F55" s="78"/>
       <c r="G55" s="77"/>
-      <c r="H55" s="86"/>
+      <c r="H55" s="78"/>
       <c r="I55" s="66"/>
       <c r="J55" s="74"/>
       <c r="K55" s="74"/>
@@ -4293,14 +6544,14 @@
       <c r="R55" s="74"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
+      <c r="A56" s="86"/>
       <c r="B56" s="75"/>
       <c r="C56" s="60"/>
       <c r="D56" s="62"/>
       <c r="E56" s="62"/>
       <c r="F56" s="81"/>
       <c r="G56" s="80"/>
-      <c r="H56" s="85"/>
+      <c r="H56" s="81"/>
       <c r="I56" s="62"/>
       <c r="J56" s="75"/>
       <c r="K56" s="75"/>
@@ -4313,14 +6564,14 @@
       <c r="R56" s="75"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="89"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="74"/>
       <c r="C57" s="64"/>
       <c r="D57" s="66"/>
       <c r="E57" s="66"/>
       <c r="F57" s="78"/>
       <c r="G57" s="77"/>
-      <c r="H57" s="86"/>
+      <c r="H57" s="78"/>
       <c r="I57" s="66"/>
       <c r="J57" s="74"/>
       <c r="K57" s="74"/>
@@ -4333,14 +6584,14 @@
       <c r="R57" s="74"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
+      <c r="A58" s="86"/>
       <c r="B58" s="75"/>
       <c r="C58" s="60"/>
       <c r="D58" s="62"/>
       <c r="E58" s="62"/>
       <c r="F58" s="81"/>
       <c r="G58" s="80"/>
-      <c r="H58" s="85"/>
+      <c r="H58" s="81"/>
       <c r="I58" s="62"/>
       <c r="J58" s="75"/>
       <c r="K58" s="75"/>
@@ -4353,14 +6604,14 @@
       <c r="R58" s="75"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="74"/>
       <c r="C59" s="64"/>
       <c r="D59" s="66"/>
       <c r="E59" s="66"/>
       <c r="F59" s="78"/>
       <c r="G59" s="77"/>
-      <c r="H59" s="86"/>
+      <c r="H59" s="78"/>
       <c r="I59" s="66"/>
       <c r="J59" s="74"/>
       <c r="K59" s="74"/>
@@ -4373,14 +6624,14 @@
       <c r="R59" s="74"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="90"/>
+      <c r="A60" s="86"/>
       <c r="B60" s="75"/>
       <c r="C60" s="60"/>
       <c r="D60" s="62"/>
       <c r="E60" s="62"/>
       <c r="F60" s="81"/>
       <c r="G60" s="80"/>
-      <c r="H60" s="85"/>
+      <c r="H60" s="81"/>
       <c r="I60" s="62"/>
       <c r="J60" s="75"/>
       <c r="K60" s="75"/>
@@ -4393,14 +6644,14 @@
       <c r="R60" s="75"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="89"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="74"/>
       <c r="C61" s="64"/>
       <c r="D61" s="66"/>
       <c r="E61" s="66"/>
       <c r="F61" s="78"/>
       <c r="G61" s="77"/>
-      <c r="H61" s="86"/>
+      <c r="H61" s="78"/>
       <c r="I61" s="66"/>
       <c r="J61" s="74"/>
       <c r="K61" s="74"/>
@@ -4413,14 +6664,14 @@
       <c r="R61" s="74"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="90"/>
+      <c r="A62" s="86"/>
       <c r="B62" s="75"/>
       <c r="C62" s="60"/>
       <c r="D62" s="62"/>
       <c r="E62" s="62"/>
       <c r="F62" s="81"/>
       <c r="G62" s="80"/>
-      <c r="H62" s="85"/>
+      <c r="H62" s="81"/>
       <c r="I62" s="62"/>
       <c r="J62" s="75"/>
       <c r="K62" s="75"/>
@@ -4433,14 +6684,14 @@
       <c r="R62" s="75"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="89"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="74"/>
       <c r="C63" s="64"/>
       <c r="D63" s="66"/>
       <c r="E63" s="66"/>
       <c r="F63" s="78"/>
       <c r="G63" s="77"/>
-      <c r="H63" s="86"/>
+      <c r="H63" s="78"/>
       <c r="I63" s="66"/>
       <c r="J63" s="74"/>
       <c r="K63" s="74"/>
@@ -4453,14 +6704,14 @@
       <c r="R63" s="74"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="90"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="75"/>
       <c r="C64" s="60"/>
       <c r="D64" s="62"/>
       <c r="E64" s="62"/>
       <c r="F64" s="81"/>
       <c r="G64" s="80"/>
-      <c r="H64" s="85"/>
+      <c r="H64" s="81"/>
       <c r="I64" s="62"/>
       <c r="J64" s="75"/>
       <c r="K64" s="75"/>
@@ -4473,14 +6724,14 @@
       <c r="R64" s="75"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="89"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="74"/>
       <c r="C65" s="64"/>
       <c r="D65" s="66"/>
       <c r="E65" s="66"/>
       <c r="F65" s="78"/>
       <c r="G65" s="77"/>
-      <c r="H65" s="86"/>
+      <c r="H65" s="78"/>
       <c r="I65" s="66"/>
       <c r="J65" s="74"/>
       <c r="K65" s="74"/>
@@ -4493,14 +6744,14 @@
       <c r="R65" s="74"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="90"/>
+      <c r="A66" s="86"/>
       <c r="B66" s="75"/>
       <c r="C66" s="60"/>
       <c r="D66" s="62"/>
       <c r="E66" s="62"/>
       <c r="F66" s="81"/>
       <c r="G66" s="80"/>
-      <c r="H66" s="85"/>
+      <c r="H66" s="81"/>
       <c r="I66" s="62"/>
       <c r="J66" s="75"/>
       <c r="K66" s="75"/>
@@ -4513,14 +6764,14 @@
       <c r="R66" s="75"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="89"/>
+      <c r="A67" s="85"/>
       <c r="B67" s="74"/>
       <c r="C67" s="64"/>
       <c r="D67" s="66"/>
       <c r="E67" s="66"/>
       <c r="F67" s="78"/>
       <c r="G67" s="77"/>
-      <c r="H67" s="86"/>
+      <c r="H67" s="78"/>
       <c r="I67" s="66"/>
       <c r="J67" s="74"/>
       <c r="K67" s="74"/>
@@ -4533,14 +6784,14 @@
       <c r="R67" s="74"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="75"/>
       <c r="C68" s="60"/>
       <c r="D68" s="62"/>
       <c r="E68" s="62"/>
       <c r="F68" s="81"/>
       <c r="G68" s="80"/>
-      <c r="H68" s="85"/>
+      <c r="H68" s="81"/>
       <c r="I68" s="62"/>
       <c r="J68" s="75"/>
       <c r="K68" s="75"/>
@@ -4553,14 +6804,14 @@
       <c r="R68" s="75"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="89"/>
+      <c r="A69" s="85"/>
       <c r="B69" s="74"/>
       <c r="C69" s="64"/>
       <c r="D69" s="66"/>
       <c r="E69" s="66"/>
       <c r="F69" s="78"/>
       <c r="G69" s="77"/>
-      <c r="H69" s="86"/>
+      <c r="H69" s="78"/>
       <c r="I69" s="66"/>
       <c r="J69" s="74"/>
       <c r="K69" s="74"/>
@@ -4573,14 +6824,14 @@
       <c r="R69" s="74"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="90"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="75"/>
       <c r="C70" s="60"/>
       <c r="D70" s="62"/>
       <c r="E70" s="62"/>
       <c r="F70" s="81"/>
       <c r="G70" s="80"/>
-      <c r="H70" s="85"/>
+      <c r="H70" s="81"/>
       <c r="I70" s="62"/>
       <c r="J70" s="75"/>
       <c r="K70" s="75"/>
@@ -4593,14 +6844,14 @@
       <c r="R70" s="75"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="89"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="74"/>
       <c r="C71" s="64"/>
       <c r="D71" s="66"/>
       <c r="E71" s="66"/>
       <c r="F71" s="78"/>
       <c r="G71" s="77"/>
-      <c r="H71" s="86"/>
+      <c r="H71" s="78"/>
       <c r="I71" s="66"/>
       <c r="J71" s="74"/>
       <c r="K71" s="74"/>
@@ -4613,14 +6864,14 @@
       <c r="R71" s="74"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="90"/>
+      <c r="A72" s="86"/>
       <c r="B72" s="75"/>
       <c r="C72" s="60"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
       <c r="F72" s="81"/>
       <c r="G72" s="80"/>
-      <c r="H72" s="85"/>
+      <c r="H72" s="81"/>
       <c r="I72" s="62"/>
       <c r="J72" s="75"/>
       <c r="K72" s="75"/>
@@ -4633,14 +6884,14 @@
       <c r="R72" s="75"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="89"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="74"/>
       <c r="C73" s="64"/>
       <c r="D73" s="66"/>
       <c r="E73" s="66"/>
       <c r="F73" s="78"/>
       <c r="G73" s="77"/>
-      <c r="H73" s="86"/>
+      <c r="H73" s="78"/>
       <c r="I73" s="66"/>
       <c r="J73" s="74"/>
       <c r="K73" s="74"/>
@@ -4653,14 +6904,14 @@
       <c r="R73" s="74"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="90"/>
+      <c r="A74" s="86"/>
       <c r="B74" s="75"/>
       <c r="C74" s="60"/>
       <c r="D74" s="62"/>
       <c r="E74" s="62"/>
       <c r="F74" s="81"/>
       <c r="G74" s="80"/>
-      <c r="H74" s="85"/>
+      <c r="H74" s="81"/>
       <c r="I74" s="62"/>
       <c r="J74" s="75"/>
       <c r="K74" s="75"/>
@@ -4673,14 +6924,14 @@
       <c r="R74" s="75"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="89"/>
+      <c r="A75" s="85"/>
       <c r="B75" s="74"/>
       <c r="C75" s="64"/>
       <c r="D75" s="66"/>
       <c r="E75" s="66"/>
       <c r="F75" s="78"/>
       <c r="G75" s="77"/>
-      <c r="H75" s="86"/>
+      <c r="H75" s="78"/>
       <c r="I75" s="66"/>
       <c r="J75" s="74"/>
       <c r="K75" s="74"/>
@@ -4693,14 +6944,14 @@
       <c r="R75" s="74"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="90"/>
+      <c r="A76" s="86"/>
       <c r="B76" s="75"/>
       <c r="C76" s="60"/>
       <c r="D76" s="62"/>
       <c r="E76" s="62"/>
       <c r="F76" s="81"/>
       <c r="G76" s="80"/>
-      <c r="H76" s="85"/>
+      <c r="H76" s="81"/>
       <c r="I76" s="62"/>
       <c r="J76" s="75"/>
       <c r="K76" s="75"/>
@@ -4713,14 +6964,14 @@
       <c r="R76" s="75"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="89"/>
+      <c r="A77" s="85"/>
       <c r="B77" s="74"/>
       <c r="C77" s="64"/>
       <c r="D77" s="66"/>
       <c r="E77" s="66"/>
       <c r="F77" s="78"/>
       <c r="G77" s="77"/>
-      <c r="H77" s="86"/>
+      <c r="H77" s="78"/>
       <c r="I77" s="66"/>
       <c r="J77" s="74"/>
       <c r="K77" s="74"/>
@@ -4733,14 +6984,14 @@
       <c r="R77" s="74"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
+      <c r="A78" s="86"/>
       <c r="B78" s="75"/>
       <c r="C78" s="60"/>
       <c r="D78" s="62"/>
       <c r="E78" s="62"/>
       <c r="F78" s="81"/>
       <c r="G78" s="80"/>
-      <c r="H78" s="85"/>
+      <c r="H78" s="81"/>
       <c r="I78" s="62"/>
       <c r="J78" s="75"/>
       <c r="K78" s="75"/>
@@ -4753,14 +7004,14 @@
       <c r="R78" s="75"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="89"/>
+      <c r="A79" s="85"/>
       <c r="B79" s="74"/>
       <c r="C79" s="64"/>
       <c r="D79" s="66"/>
       <c r="E79" s="66"/>
       <c r="F79" s="78"/>
       <c r="G79" s="77"/>
-      <c r="H79" s="86"/>
+      <c r="H79" s="78"/>
       <c r="I79" s="66"/>
       <c r="J79" s="74"/>
       <c r="K79" s="74"/>
@@ -4773,14 +7024,14 @@
       <c r="R79" s="74"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="90"/>
+      <c r="A80" s="86"/>
       <c r="B80" s="75"/>
       <c r="C80" s="60"/>
       <c r="D80" s="62"/>
       <c r="E80" s="62"/>
       <c r="F80" s="81"/>
       <c r="G80" s="80"/>
-      <c r="H80" s="85"/>
+      <c r="H80" s="81"/>
       <c r="I80" s="62"/>
       <c r="J80" s="75"/>
       <c r="K80" s="75"/>
@@ -4793,14 +7044,14 @@
       <c r="R80" s="75"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="89"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="74"/>
       <c r="C81" s="64"/>
       <c r="D81" s="66"/>
       <c r="E81" s="66"/>
       <c r="F81" s="78"/>
       <c r="G81" s="77"/>
-      <c r="H81" s="86"/>
+      <c r="H81" s="78"/>
       <c r="I81" s="66"/>
       <c r="J81" s="74"/>
       <c r="K81" s="74"/>
@@ -4813,14 +7064,14 @@
       <c r="R81" s="74"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="90"/>
+      <c r="A82" s="86"/>
       <c r="B82" s="75"/>
       <c r="C82" s="60"/>
       <c r="D82" s="62"/>
       <c r="E82" s="62"/>
       <c r="F82" s="81"/>
       <c r="G82" s="80"/>
-      <c r="H82" s="85"/>
+      <c r="H82" s="81"/>
       <c r="I82" s="62"/>
       <c r="J82" s="75"/>
       <c r="K82" s="75"/>
@@ -4833,14 +7084,14 @@
       <c r="R82" s="75"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="89"/>
+      <c r="A83" s="85"/>
       <c r="B83" s="74"/>
       <c r="C83" s="64"/>
       <c r="D83" s="66"/>
       <c r="E83" s="66"/>
       <c r="F83" s="78"/>
       <c r="G83" s="77"/>
-      <c r="H83" s="86"/>
+      <c r="H83" s="78"/>
       <c r="I83" s="66"/>
       <c r="J83" s="74"/>
       <c r="K83" s="74"/>
@@ -4853,14 +7104,14 @@
       <c r="R83" s="74"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="90"/>
+      <c r="A84" s="86"/>
       <c r="B84" s="75"/>
       <c r="C84" s="60"/>
       <c r="D84" s="62"/>
       <c r="E84" s="62"/>
       <c r="F84" s="81"/>
       <c r="G84" s="80"/>
-      <c r="H84" s="85"/>
+      <c r="H84" s="81"/>
       <c r="I84" s="62"/>
       <c r="J84" s="75"/>
       <c r="K84" s="75"/>
@@ -4873,14 +7124,14 @@
       <c r="R84" s="75"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
+      <c r="A85" s="85"/>
       <c r="B85" s="74"/>
       <c r="C85" s="64"/>
       <c r="D85" s="66"/>
       <c r="E85" s="66"/>
       <c r="F85" s="78"/>
       <c r="G85" s="77"/>
-      <c r="H85" s="86"/>
+      <c r="H85" s="78"/>
       <c r="I85" s="66"/>
       <c r="J85" s="74"/>
       <c r="K85" s="74"/>
@@ -4893,14 +7144,14 @@
       <c r="R85" s="74"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
+      <c r="A86" s="86"/>
       <c r="B86" s="75"/>
       <c r="C86" s="60"/>
       <c r="D86" s="62"/>
       <c r="E86" s="62"/>
       <c r="F86" s="81"/>
       <c r="G86" s="80"/>
-      <c r="H86" s="85"/>
+      <c r="H86" s="81"/>
       <c r="I86" s="62"/>
       <c r="J86" s="75"/>
       <c r="K86" s="75"/>
@@ -4913,14 +7164,14 @@
       <c r="R86" s="75"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="89"/>
+      <c r="A87" s="85"/>
       <c r="B87" s="74"/>
       <c r="C87" s="64"/>
       <c r="D87" s="66"/>
       <c r="E87" s="66"/>
       <c r="F87" s="78"/>
       <c r="G87" s="77"/>
-      <c r="H87" s="86"/>
+      <c r="H87" s="78"/>
       <c r="I87" s="66"/>
       <c r="J87" s="74"/>
       <c r="K87" s="74"/>
@@ -4933,14 +7184,14 @@
       <c r="R87" s="74"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
+      <c r="A88" s="86"/>
       <c r="B88" s="75"/>
       <c r="C88" s="60"/>
       <c r="D88" s="62"/>
       <c r="E88" s="62"/>
       <c r="F88" s="81"/>
       <c r="G88" s="80"/>
-      <c r="H88" s="85"/>
+      <c r="H88" s="81"/>
       <c r="I88" s="62"/>
       <c r="J88" s="75"/>
       <c r="K88" s="75"/>
@@ -4953,14 +7204,14 @@
       <c r="R88" s="75"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="89"/>
+      <c r="A89" s="85"/>
       <c r="B89" s="74"/>
       <c r="C89" s="64"/>
       <c r="D89" s="66"/>
       <c r="E89" s="66"/>
       <c r="F89" s="78"/>
       <c r="G89" s="77"/>
-      <c r="H89" s="86"/>
+      <c r="H89" s="78"/>
       <c r="I89" s="66"/>
       <c r="J89" s="74"/>
       <c r="K89" s="74"/>
@@ -4973,14 +7224,14 @@
       <c r="R89" s="74"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
+      <c r="A90" s="86"/>
       <c r="B90" s="75"/>
       <c r="C90" s="60"/>
       <c r="D90" s="62"/>
       <c r="E90" s="62"/>
       <c r="F90" s="81"/>
       <c r="G90" s="80"/>
-      <c r="H90" s="85"/>
+      <c r="H90" s="81"/>
       <c r="I90" s="62"/>
       <c r="J90" s="75"/>
       <c r="K90" s="75"/>
@@ -4993,14 +7244,14 @@
       <c r="R90" s="75"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="89"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="74"/>
       <c r="C91" s="64"/>
       <c r="D91" s="66"/>
       <c r="E91" s="66"/>
       <c r="F91" s="78"/>
       <c r="G91" s="77"/>
-      <c r="H91" s="86"/>
+      <c r="H91" s="78"/>
       <c r="I91" s="66"/>
       <c r="J91" s="74"/>
       <c r="K91" s="74"/>
@@ -5013,14 +7264,14 @@
       <c r="R91" s="74"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
+      <c r="A92" s="86"/>
       <c r="B92" s="75"/>
       <c r="C92" s="60"/>
       <c r="D92" s="62"/>
       <c r="E92" s="62"/>
       <c r="F92" s="81"/>
       <c r="G92" s="80"/>
-      <c r="H92" s="85"/>
+      <c r="H92" s="81"/>
       <c r="I92" s="62"/>
       <c r="J92" s="75"/>
       <c r="K92" s="75"/>
@@ -5033,14 +7284,14 @@
       <c r="R92" s="75"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="89"/>
+      <c r="A93" s="85"/>
       <c r="B93" s="74"/>
       <c r="C93" s="64"/>
       <c r="D93" s="66"/>
       <c r="E93" s="66"/>
       <c r="F93" s="78"/>
       <c r="G93" s="77"/>
-      <c r="H93" s="86"/>
+      <c r="H93" s="78"/>
       <c r="I93" s="66"/>
       <c r="J93" s="74"/>
       <c r="K93" s="74"/>
@@ -5053,14 +7304,14 @@
       <c r="R93" s="74"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
+      <c r="A94" s="86"/>
       <c r="B94" s="75"/>
       <c r="C94" s="60"/>
       <c r="D94" s="62"/>
       <c r="E94" s="62"/>
       <c r="F94" s="81"/>
       <c r="G94" s="80"/>
-      <c r="H94" s="85"/>
+      <c r="H94" s="81"/>
       <c r="I94" s="62"/>
       <c r="J94" s="75"/>
       <c r="K94" s="75"/>
@@ -5073,14 +7324,14 @@
       <c r="R94" s="75"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="89"/>
+      <c r="A95" s="85"/>
       <c r="B95" s="74"/>
       <c r="C95" s="64"/>
       <c r="D95" s="66"/>
       <c r="E95" s="66"/>
       <c r="F95" s="78"/>
       <c r="G95" s="77"/>
-      <c r="H95" s="86"/>
+      <c r="H95" s="78"/>
       <c r="I95" s="66"/>
       <c r="J95" s="74"/>
       <c r="K95" s="74"/>
@@ -5093,14 +7344,14 @@
       <c r="R95" s="74"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
+      <c r="A96" s="86"/>
       <c r="B96" s="75"/>
       <c r="C96" s="60"/>
       <c r="D96" s="62"/>
       <c r="E96" s="62"/>
       <c r="F96" s="81"/>
       <c r="G96" s="80"/>
-      <c r="H96" s="85"/>
+      <c r="H96" s="81"/>
       <c r="I96" s="62"/>
       <c r="J96" s="75"/>
       <c r="K96" s="75"/>
@@ -5113,14 +7364,14 @@
       <c r="R96" s="75"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="89"/>
+      <c r="A97" s="85"/>
       <c r="B97" s="74"/>
       <c r="C97" s="64"/>
       <c r="D97" s="66"/>
       <c r="E97" s="66"/>
       <c r="F97" s="78"/>
       <c r="G97" s="77"/>
-      <c r="H97" s="86"/>
+      <c r="H97" s="78"/>
       <c r="I97" s="66"/>
       <c r="J97" s="74"/>
       <c r="K97" s="74"/>
@@ -5133,14 +7384,14 @@
       <c r="R97" s="74"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
+      <c r="A98" s="86"/>
       <c r="B98" s="75"/>
       <c r="C98" s="60"/>
       <c r="D98" s="62"/>
       <c r="E98" s="62"/>
       <c r="F98" s="81"/>
       <c r="G98" s="80"/>
-      <c r="H98" s="85"/>
+      <c r="H98" s="81"/>
       <c r="I98" s="62"/>
       <c r="J98" s="75"/>
       <c r="K98" s="75"/>
@@ -5153,14 +7404,14 @@
       <c r="R98" s="75"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="89"/>
+      <c r="A99" s="85"/>
       <c r="B99" s="74"/>
       <c r="C99" s="64"/>
       <c r="D99" s="66"/>
       <c r="E99" s="66"/>
       <c r="F99" s="78"/>
       <c r="G99" s="77"/>
-      <c r="H99" s="86"/>
+      <c r="H99" s="78"/>
       <c r="I99" s="66"/>
       <c r="J99" s="74"/>
       <c r="K99" s="74"/>
@@ -5173,14 +7424,14 @@
       <c r="R99" s="74"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="90"/>
+      <c r="A100" s="86"/>
       <c r="B100" s="75"/>
       <c r="C100" s="60"/>
       <c r="D100" s="62"/>
       <c r="E100" s="62"/>
       <c r="F100" s="81"/>
       <c r="G100" s="80"/>
-      <c r="H100" s="85"/>
+      <c r="H100" s="81"/>
       <c r="I100" s="62"/>
       <c r="J100" s="75"/>
       <c r="K100" s="75"/>
@@ -5193,14 +7444,14 @@
       <c r="R100" s="75"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="89"/>
+      <c r="A101" s="85"/>
       <c r="B101" s="74"/>
       <c r="C101" s="64"/>
       <c r="D101" s="66"/>
       <c r="E101" s="66"/>
       <c r="F101" s="78"/>
       <c r="G101" s="77"/>
-      <c r="H101" s="86"/>
+      <c r="H101" s="78"/>
       <c r="I101" s="66"/>
       <c r="J101" s="74"/>
       <c r="K101" s="74"/>
@@ -5213,14 +7464,14 @@
       <c r="R101" s="74"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="90"/>
+      <c r="A102" s="86"/>
       <c r="B102" s="75"/>
       <c r="C102" s="60"/>
       <c r="D102" s="62"/>
       <c r="E102" s="62"/>
       <c r="F102" s="81"/>
       <c r="G102" s="80"/>
-      <c r="H102" s="85"/>
+      <c r="H102" s="81"/>
       <c r="I102" s="62"/>
       <c r="J102" s="75"/>
       <c r="K102" s="75"/>
@@ -5233,14 +7484,14 @@
       <c r="R102" s="75"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="89"/>
+      <c r="A103" s="85"/>
       <c r="B103" s="74"/>
       <c r="C103" s="64"/>
       <c r="D103" s="66"/>
       <c r="E103" s="66"/>
       <c r="F103" s="78"/>
       <c r="G103" s="77"/>
-      <c r="H103" s="86"/>
+      <c r="H103" s="78"/>
       <c r="I103" s="66"/>
       <c r="J103" s="74"/>
       <c r="K103" s="74"/>
@@ -5253,14 +7504,14 @@
       <c r="R103" s="74"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="90"/>
+      <c r="A104" s="86"/>
       <c r="B104" s="75"/>
       <c r="C104" s="60"/>
       <c r="D104" s="62"/>
       <c r="E104" s="62"/>
       <c r="F104" s="81"/>
       <c r="G104" s="80"/>
-      <c r="H104" s="85"/>
+      <c r="H104" s="81"/>
       <c r="I104" s="62"/>
       <c r="J104" s="75"/>
       <c r="K104" s="75"/>
@@ -5273,14 +7524,14 @@
       <c r="R104" s="75"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="89"/>
+      <c r="A105" s="85"/>
       <c r="B105" s="74"/>
       <c r="C105" s="64"/>
       <c r="D105" s="66"/>
       <c r="E105" s="66"/>
       <c r="F105" s="78"/>
       <c r="G105" s="77"/>
-      <c r="H105" s="86"/>
+      <c r="H105" s="78"/>
       <c r="I105" s="66"/>
       <c r="J105" s="74"/>
       <c r="K105" s="74"/>
@@ -5293,14 +7544,14 @@
       <c r="R105" s="74"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="90"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="75"/>
       <c r="C106" s="60"/>
       <c r="D106" s="62"/>
       <c r="E106" s="62"/>
       <c r="F106" s="81"/>
       <c r="G106" s="80"/>
-      <c r="H106" s="85"/>
+      <c r="H106" s="81"/>
       <c r="I106" s="62"/>
       <c r="J106" s="75"/>
       <c r="K106" s="75"/>
@@ -5313,14 +7564,14 @@
       <c r="R106" s="75"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="89"/>
+      <c r="A107" s="85"/>
       <c r="B107" s="74"/>
       <c r="C107" s="64"/>
       <c r="D107" s="66"/>
       <c r="E107" s="66"/>
       <c r="F107" s="78"/>
       <c r="G107" s="77"/>
-      <c r="H107" s="86"/>
+      <c r="H107" s="78"/>
       <c r="I107" s="66"/>
       <c r="J107" s="74"/>
       <c r="K107" s="74"/>
@@ -5333,14 +7584,14 @@
       <c r="R107" s="74"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="90"/>
+      <c r="A108" s="86"/>
       <c r="B108" s="75"/>
       <c r="C108" s="60"/>
       <c r="D108" s="62"/>
       <c r="E108" s="62"/>
       <c r="F108" s="81"/>
       <c r="G108" s="80"/>
-      <c r="H108" s="85"/>
+      <c r="H108" s="81"/>
       <c r="I108" s="62"/>
       <c r="J108" s="75"/>
       <c r="K108" s="75"/>
@@ -5353,14 +7604,14 @@
       <c r="R108" s="75"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="89"/>
+      <c r="A109" s="85"/>
       <c r="B109" s="74"/>
       <c r="C109" s="64"/>
       <c r="D109" s="66"/>
       <c r="E109" s="66"/>
       <c r="F109" s="78"/>
       <c r="G109" s="77"/>
-      <c r="H109" s="86"/>
+      <c r="H109" s="78"/>
       <c r="I109" s="66"/>
       <c r="J109" s="74"/>
       <c r="K109" s="74"/>
@@ -5373,14 +7624,14 @@
       <c r="R109" s="74"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="90"/>
+      <c r="A110" s="86"/>
       <c r="B110" s="75"/>
       <c r="C110" s="60"/>
       <c r="D110" s="62"/>
       <c r="E110" s="62"/>
       <c r="F110" s="81"/>
       <c r="G110" s="80"/>
-      <c r="H110" s="85"/>
+      <c r="H110" s="81"/>
       <c r="I110" s="62"/>
       <c r="J110" s="75"/>
       <c r="K110" s="75"/>
@@ -5393,14 +7644,14 @@
       <c r="R110" s="75"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="89"/>
+      <c r="A111" s="85"/>
       <c r="B111" s="74"/>
       <c r="C111" s="64"/>
       <c r="D111" s="66"/>
       <c r="E111" s="66"/>
       <c r="F111" s="78"/>
       <c r="G111" s="77"/>
-      <c r="H111" s="86"/>
+      <c r="H111" s="78"/>
       <c r="I111" s="66"/>
       <c r="J111" s="74"/>
       <c r="K111" s="74"/>
@@ -5413,14 +7664,14 @@
       <c r="R111" s="74"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="90"/>
+      <c r="A112" s="86"/>
       <c r="B112" s="75"/>
       <c r="C112" s="60"/>
       <c r="D112" s="62"/>
       <c r="E112" s="62"/>
       <c r="F112" s="81"/>
       <c r="G112" s="80"/>
-      <c r="H112" s="85"/>
+      <c r="H112" s="81"/>
       <c r="I112" s="62"/>
       <c r="J112" s="75"/>
       <c r="K112" s="75"/>
@@ -5433,14 +7684,14 @@
       <c r="R112" s="75"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="89"/>
+      <c r="A113" s="85"/>
       <c r="B113" s="74"/>
       <c r="C113" s="64"/>
       <c r="D113" s="66"/>
       <c r="E113" s="66"/>
       <c r="F113" s="78"/>
       <c r="G113" s="77"/>
-      <c r="H113" s="86"/>
+      <c r="H113" s="78"/>
       <c r="I113" s="66"/>
       <c r="J113" s="74"/>
       <c r="K113" s="74"/>
@@ -5453,14 +7704,14 @@
       <c r="R113" s="74"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="90"/>
+      <c r="A114" s="86"/>
       <c r="B114" s="75"/>
       <c r="C114" s="60"/>
       <c r="D114" s="62"/>
       <c r="E114" s="62"/>
       <c r="F114" s="81"/>
       <c r="G114" s="80"/>
-      <c r="H114" s="85"/>
+      <c r="H114" s="81"/>
       <c r="I114" s="62"/>
       <c r="J114" s="75"/>
       <c r="K114" s="75"/>
@@ -5473,14 +7724,14 @@
       <c r="R114" s="75"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="89"/>
+      <c r="A115" s="85"/>
       <c r="B115" s="74"/>
       <c r="C115" s="64"/>
       <c r="D115" s="66"/>
       <c r="E115" s="66"/>
       <c r="F115" s="78"/>
       <c r="G115" s="77"/>
-      <c r="H115" s="86"/>
+      <c r="H115" s="78"/>
       <c r="I115" s="66"/>
       <c r="J115" s="74"/>
       <c r="K115" s="74"/>
@@ -5493,14 +7744,14 @@
       <c r="R115" s="74"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="90"/>
+      <c r="A116" s="86"/>
       <c r="B116" s="75"/>
       <c r="C116" s="60"/>
       <c r="D116" s="62"/>
       <c r="E116" s="62"/>
       <c r="F116" s="81"/>
       <c r="G116" s="80"/>
-      <c r="H116" s="85"/>
+      <c r="H116" s="81"/>
       <c r="I116" s="62"/>
       <c r="J116" s="75"/>
       <c r="K116" s="75"/>
@@ -5513,14 +7764,14 @@
       <c r="R116" s="75"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="89"/>
+      <c r="A117" s="85"/>
       <c r="B117" s="74"/>
       <c r="C117" s="64"/>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="78"/>
       <c r="G117" s="77"/>
-      <c r="H117" s="86"/>
+      <c r="H117" s="78"/>
       <c r="I117" s="66"/>
       <c r="J117" s="74"/>
       <c r="K117" s="74"/>
@@ -5533,14 +7784,14 @@
       <c r="R117" s="74"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="90"/>
+      <c r="A118" s="86"/>
       <c r="B118" s="75"/>
       <c r="C118" s="60"/>
       <c r="D118" s="62"/>
       <c r="E118" s="62"/>
       <c r="F118" s="81"/>
       <c r="G118" s="80"/>
-      <c r="H118" s="85"/>
+      <c r="H118" s="81"/>
       <c r="I118" s="62"/>
       <c r="J118" s="75"/>
       <c r="K118" s="75"/>
@@ -5553,14 +7804,14 @@
       <c r="R118" s="75"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="89"/>
+      <c r="A119" s="85"/>
       <c r="B119" s="74"/>
       <c r="C119" s="64"/>
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
       <c r="F119" s="78"/>
       <c r="G119" s="77"/>
-      <c r="H119" s="86"/>
+      <c r="H119" s="78"/>
       <c r="I119" s="66"/>
       <c r="J119" s="74"/>
       <c r="K119" s="74"/>
@@ -5573,14 +7824,14 @@
       <c r="R119" s="74"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="90"/>
+      <c r="A120" s="86"/>
       <c r="B120" s="75"/>
       <c r="C120" s="60"/>
       <c r="D120" s="62"/>
       <c r="E120" s="62"/>
       <c r="F120" s="81"/>
       <c r="G120" s="80"/>
-      <c r="H120" s="85"/>
+      <c r="H120" s="81"/>
       <c r="I120" s="62"/>
       <c r="J120" s="75"/>
       <c r="K120" s="75"/>
@@ -5593,14 +7844,14 @@
       <c r="R120" s="75"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="89"/>
+      <c r="A121" s="85"/>
       <c r="B121" s="74"/>
       <c r="C121" s="64"/>
       <c r="D121" s="66"/>
       <c r="E121" s="66"/>
       <c r="F121" s="78"/>
       <c r="G121" s="77"/>
-      <c r="H121" s="86"/>
+      <c r="H121" s="78"/>
       <c r="I121" s="66"/>
       <c r="J121" s="74"/>
       <c r="K121" s="74"/>
@@ -5613,14 +7864,14 @@
       <c r="R121" s="74"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="90"/>
+      <c r="A122" s="86"/>
       <c r="B122" s="75"/>
       <c r="C122" s="60"/>
       <c r="D122" s="62"/>
       <c r="E122" s="62"/>
       <c r="F122" s="81"/>
       <c r="G122" s="80"/>
-      <c r="H122" s="85"/>
+      <c r="H122" s="81"/>
       <c r="I122" s="62"/>
       <c r="J122" s="75"/>
       <c r="K122" s="75"/>
@@ -5633,14 +7884,14 @@
       <c r="R122" s="75"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="89"/>
+      <c r="A123" s="85"/>
       <c r="B123" s="74"/>
       <c r="C123" s="64"/>
       <c r="D123" s="66"/>
       <c r="E123" s="66"/>
       <c r="F123" s="78"/>
       <c r="G123" s="77"/>
-      <c r="H123" s="86"/>
+      <c r="H123" s="78"/>
       <c r="I123" s="66"/>
       <c r="J123" s="74"/>
       <c r="K123" s="74"/>
@@ -5653,14 +7904,14 @@
       <c r="R123" s="74"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="90"/>
+      <c r="A124" s="86"/>
       <c r="B124" s="75"/>
       <c r="C124" s="60"/>
       <c r="D124" s="62"/>
       <c r="E124" s="62"/>
       <c r="F124" s="81"/>
       <c r="G124" s="80"/>
-      <c r="H124" s="85"/>
+      <c r="H124" s="81"/>
       <c r="I124" s="62"/>
       <c r="J124" s="75"/>
       <c r="K124" s="75"/>
@@ -5673,14 +7924,14 @@
       <c r="R124" s="75"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="89"/>
+      <c r="A125" s="85"/>
       <c r="B125" s="74"/>
       <c r="C125" s="64"/>
       <c r="D125" s="66"/>
       <c r="E125" s="66"/>
       <c r="F125" s="78"/>
       <c r="G125" s="77"/>
-      <c r="H125" s="86"/>
+      <c r="H125" s="78"/>
       <c r="I125" s="66"/>
       <c r="J125" s="74"/>
       <c r="K125" s="74"/>
@@ -5693,14 +7944,14 @@
       <c r="R125" s="74"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="90"/>
+      <c r="A126" s="86"/>
       <c r="B126" s="75"/>
       <c r="C126" s="60"/>
       <c r="D126" s="62"/>
       <c r="E126" s="62"/>
       <c r="F126" s="81"/>
       <c r="G126" s="80"/>
-      <c r="H126" s="85"/>
+      <c r="H126" s="81"/>
       <c r="I126" s="62"/>
       <c r="J126" s="75"/>
       <c r="K126" s="75"/>
@@ -5713,14 +7964,14 @@
       <c r="R126" s="75"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="89"/>
+      <c r="A127" s="85"/>
       <c r="B127" s="74"/>
       <c r="C127" s="64"/>
       <c r="D127" s="66"/>
       <c r="E127" s="66"/>
       <c r="F127" s="78"/>
       <c r="G127" s="77"/>
-      <c r="H127" s="86"/>
+      <c r="H127" s="78"/>
       <c r="I127" s="66"/>
       <c r="J127" s="74"/>
       <c r="K127" s="74"/>
@@ -5733,14 +7984,14 @@
       <c r="R127" s="74"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="90"/>
+      <c r="A128" s="86"/>
       <c r="B128" s="75"/>
       <c r="C128" s="60"/>
       <c r="D128" s="62"/>
       <c r="E128" s="62"/>
       <c r="F128" s="81"/>
       <c r="G128" s="80"/>
-      <c r="H128" s="85"/>
+      <c r="H128" s="81"/>
       <c r="I128" s="62"/>
       <c r="J128" s="75"/>
       <c r="K128" s="75"/>
@@ -5753,14 +8004,14 @@
       <c r="R128" s="75"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="89"/>
+      <c r="A129" s="85"/>
       <c r="B129" s="74"/>
       <c r="C129" s="64"/>
       <c r="D129" s="66"/>
       <c r="E129" s="66"/>
       <c r="F129" s="78"/>
       <c r="G129" s="77"/>
-      <c r="H129" s="86"/>
+      <c r="H129" s="78"/>
       <c r="I129" s="66"/>
       <c r="J129" s="74"/>
       <c r="K129" s="74"/>
@@ -5773,14 +8024,14 @@
       <c r="R129" s="74"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A130" s="90"/>
+      <c r="A130" s="86"/>
       <c r="B130" s="75"/>
       <c r="C130" s="60"/>
       <c r="D130" s="62"/>
       <c r="E130" s="62"/>
       <c r="F130" s="81"/>
       <c r="G130" s="80"/>
-      <c r="H130" s="85"/>
+      <c r="H130" s="81"/>
       <c r="I130" s="62"/>
       <c r="J130" s="75"/>
       <c r="K130" s="75"/>
@@ -5793,14 +8044,14 @@
       <c r="R130" s="75"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="89"/>
+      <c r="A131" s="85"/>
       <c r="B131" s="74"/>
       <c r="C131" s="64"/>
       <c r="D131" s="66"/>
       <c r="E131" s="66"/>
       <c r="F131" s="78"/>
       <c r="G131" s="77"/>
-      <c r="H131" s="86"/>
+      <c r="H131" s="78"/>
       <c r="I131" s="66"/>
       <c r="J131" s="74"/>
       <c r="K131" s="74"/>
@@ -5813,14 +8064,14 @@
       <c r="R131" s="74"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="90"/>
+      <c r="A132" s="86"/>
       <c r="B132" s="75"/>
       <c r="C132" s="60"/>
       <c r="D132" s="62"/>
       <c r="E132" s="62"/>
       <c r="F132" s="81"/>
       <c r="G132" s="80"/>
-      <c r="H132" s="85"/>
+      <c r="H132" s="81"/>
       <c r="I132" s="62"/>
       <c r="J132" s="75"/>
       <c r="K132" s="75"/>
@@ -5833,14 +8084,14 @@
       <c r="R132" s="75"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="89"/>
+      <c r="A133" s="85"/>
       <c r="B133" s="74"/>
       <c r="C133" s="64"/>
       <c r="D133" s="66"/>
       <c r="E133" s="66"/>
       <c r="F133" s="78"/>
       <c r="G133" s="77"/>
-      <c r="H133" s="86"/>
+      <c r="H133" s="78"/>
       <c r="I133" s="66"/>
       <c r="J133" s="74"/>
       <c r="K133" s="74"/>
@@ -5853,14 +8104,14 @@
       <c r="R133" s="74"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="90"/>
+      <c r="A134" s="86"/>
       <c r="B134" s="75"/>
       <c r="C134" s="60"/>
       <c r="D134" s="62"/>
       <c r="E134" s="62"/>
       <c r="F134" s="81"/>
       <c r="G134" s="80"/>
-      <c r="H134" s="85"/>
+      <c r="H134" s="81"/>
       <c r="I134" s="62"/>
       <c r="J134" s="75"/>
       <c r="K134" s="75"/>
@@ -5873,14 +8124,14 @@
       <c r="R134" s="75"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="89"/>
+      <c r="A135" s="85"/>
       <c r="B135" s="74"/>
       <c r="C135" s="64"/>
       <c r="D135" s="66"/>
       <c r="E135" s="66"/>
       <c r="F135" s="78"/>
       <c r="G135" s="77"/>
-      <c r="H135" s="86"/>
+      <c r="H135" s="78"/>
       <c r="I135" s="66"/>
       <c r="J135" s="74"/>
       <c r="K135" s="74"/>
@@ -5893,14 +8144,14 @@
       <c r="R135" s="74"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A136" s="90"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="75"/>
       <c r="C136" s="60"/>
       <c r="D136" s="62"/>
       <c r="E136" s="62"/>
       <c r="F136" s="81"/>
       <c r="G136" s="80"/>
-      <c r="H136" s="85"/>
+      <c r="H136" s="81"/>
       <c r="I136" s="62"/>
       <c r="J136" s="75"/>
       <c r="K136" s="75"/>
@@ -5913,14 +8164,14 @@
       <c r="R136" s="75"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A137" s="89"/>
+      <c r="A137" s="85"/>
       <c r="B137" s="74"/>
       <c r="C137" s="64"/>
       <c r="D137" s="66"/>
       <c r="E137" s="66"/>
       <c r="F137" s="78"/>
       <c r="G137" s="77"/>
-      <c r="H137" s="86"/>
+      <c r="H137" s="78"/>
       <c r="I137" s="66"/>
       <c r="J137" s="74"/>
       <c r="K137" s="74"/>
@@ -5933,14 +8184,14 @@
       <c r="R137" s="74"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A138" s="90"/>
+      <c r="A138" s="86"/>
       <c r="B138" s="75"/>
       <c r="C138" s="60"/>
       <c r="D138" s="62"/>
       <c r="E138" s="62"/>
       <c r="F138" s="81"/>
       <c r="G138" s="80"/>
-      <c r="H138" s="85"/>
+      <c r="H138" s="81"/>
       <c r="I138" s="62"/>
       <c r="J138" s="75"/>
       <c r="K138" s="75"/>
@@ -5953,14 +8204,14 @@
       <c r="R138" s="75"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A139" s="89"/>
+      <c r="A139" s="85"/>
       <c r="B139" s="74"/>
       <c r="C139" s="64"/>
       <c r="D139" s="66"/>
       <c r="E139" s="66"/>
       <c r="F139" s="78"/>
       <c r="G139" s="77"/>
-      <c r="H139" s="86"/>
+      <c r="H139" s="78"/>
       <c r="I139" s="66"/>
       <c r="J139" s="74"/>
       <c r="K139" s="74"/>
@@ -5973,14 +8224,14 @@
       <c r="R139" s="74"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A140" s="90"/>
+      <c r="A140" s="86"/>
       <c r="B140" s="75"/>
       <c r="C140" s="60"/>
       <c r="D140" s="62"/>
       <c r="E140" s="62"/>
       <c r="F140" s="81"/>
       <c r="G140" s="80"/>
-      <c r="H140" s="85"/>
+      <c r="H140" s="81"/>
       <c r="I140" s="62"/>
       <c r="J140" s="75"/>
       <c r="K140" s="75"/>
@@ -5993,14 +8244,14 @@
       <c r="R140" s="75"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A141" s="89"/>
+      <c r="A141" s="85"/>
       <c r="B141" s="74"/>
       <c r="C141" s="64"/>
       <c r="D141" s="66"/>
       <c r="E141" s="66"/>
       <c r="F141" s="78"/>
       <c r="G141" s="77"/>
-      <c r="H141" s="86"/>
+      <c r="H141" s="78"/>
       <c r="I141" s="66"/>
       <c r="J141" s="74"/>
       <c r="K141" s="74"/>
@@ -6013,14 +8264,14 @@
       <c r="R141" s="74"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A142" s="90"/>
+      <c r="A142" s="86"/>
       <c r="B142" s="75"/>
       <c r="C142" s="60"/>
       <c r="D142" s="62"/>
       <c r="E142" s="62"/>
       <c r="F142" s="81"/>
       <c r="G142" s="80"/>
-      <c r="H142" s="85"/>
+      <c r="H142" s="81"/>
       <c r="I142" s="62"/>
       <c r="J142" s="75"/>
       <c r="K142" s="75"/>
@@ -6033,14 +8284,14 @@
       <c r="R142" s="75"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A143" s="89"/>
+      <c r="A143" s="85"/>
       <c r="B143" s="74"/>
       <c r="C143" s="64"/>
       <c r="D143" s="66"/>
       <c r="E143" s="66"/>
       <c r="F143" s="78"/>
       <c r="G143" s="77"/>
-      <c r="H143" s="86"/>
+      <c r="H143" s="78"/>
       <c r="I143" s="66"/>
       <c r="J143" s="74"/>
       <c r="K143" s="74"/>
@@ -6053,14 +8304,14 @@
       <c r="R143" s="74"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A144" s="90"/>
+      <c r="A144" s="86"/>
       <c r="B144" s="75"/>
       <c r="C144" s="60"/>
       <c r="D144" s="62"/>
       <c r="E144" s="62"/>
       <c r="F144" s="81"/>
       <c r="G144" s="80"/>
-      <c r="H144" s="85"/>
+      <c r="H144" s="81"/>
       <c r="I144" s="62"/>
       <c r="J144" s="75"/>
       <c r="K144" s="75"/>
@@ -6073,14 +8324,14 @@
       <c r="R144" s="75"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A145" s="89"/>
+      <c r="A145" s="85"/>
       <c r="B145" s="74"/>
       <c r="C145" s="64"/>
       <c r="D145" s="66"/>
       <c r="E145" s="66"/>
       <c r="F145" s="78"/>
       <c r="G145" s="77"/>
-      <c r="H145" s="86"/>
+      <c r="H145" s="78"/>
       <c r="I145" s="66"/>
       <c r="J145" s="74"/>
       <c r="K145" s="74"/>
@@ -6093,14 +8344,14 @@
       <c r="R145" s="74"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A146" s="90"/>
+      <c r="A146" s="86"/>
       <c r="B146" s="75"/>
       <c r="C146" s="60"/>
       <c r="D146" s="62"/>
       <c r="E146" s="62"/>
       <c r="F146" s="81"/>
       <c r="G146" s="80"/>
-      <c r="H146" s="85"/>
+      <c r="H146" s="81"/>
       <c r="I146" s="62"/>
       <c r="J146" s="75"/>
       <c r="K146" s="75"/>
@@ -6113,14 +8364,14 @@
       <c r="R146" s="75"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A147" s="89"/>
+      <c r="A147" s="85"/>
       <c r="B147" s="74"/>
       <c r="C147" s="64"/>
       <c r="D147" s="66"/>
       <c r="E147" s="66"/>
       <c r="F147" s="78"/>
       <c r="G147" s="77"/>
-      <c r="H147" s="86"/>
+      <c r="H147" s="78"/>
       <c r="I147" s="66"/>
       <c r="J147" s="74"/>
       <c r="K147" s="74"/>
@@ -6133,14 +8384,14 @@
       <c r="R147" s="74"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="90"/>
+      <c r="A148" s="86"/>
       <c r="B148" s="75"/>
       <c r="C148" s="60"/>
       <c r="D148" s="62"/>
       <c r="E148" s="62"/>
       <c r="F148" s="81"/>
       <c r="G148" s="80"/>
-      <c r="H148" s="85"/>
+      <c r="H148" s="81"/>
       <c r="I148" s="62"/>
       <c r="J148" s="75"/>
       <c r="K148" s="75"/>
@@ -6153,14 +8404,14 @@
       <c r="R148" s="75"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="89"/>
+      <c r="A149" s="85"/>
       <c r="B149" s="74"/>
       <c r="C149" s="64"/>
       <c r="D149" s="66"/>
       <c r="E149" s="66"/>
       <c r="F149" s="78"/>
       <c r="G149" s="77"/>
-      <c r="H149" s="86"/>
+      <c r="H149" s="78"/>
       <c r="I149" s="66"/>
       <c r="J149" s="74"/>
       <c r="K149" s="74"/>
@@ -6173,14 +8424,14 @@
       <c r="R149" s="74"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="90"/>
+      <c r="A150" s="86"/>
       <c r="B150" s="75"/>
       <c r="C150" s="60"/>
       <c r="D150" s="62"/>
       <c r="E150" s="62"/>
       <c r="F150" s="81"/>
       <c r="G150" s="80"/>
-      <c r="H150" s="85"/>
+      <c r="H150" s="81"/>
       <c r="I150" s="62"/>
       <c r="J150" s="75"/>
       <c r="K150" s="75"/>
@@ -6193,14 +8444,14 @@
       <c r="R150" s="75"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="89"/>
+      <c r="A151" s="85"/>
       <c r="B151" s="74"/>
       <c r="C151" s="64"/>
       <c r="D151" s="66"/>
       <c r="E151" s="66"/>
       <c r="F151" s="78"/>
       <c r="G151" s="77"/>
-      <c r="H151" s="86"/>
+      <c r="H151" s="78"/>
       <c r="I151" s="66"/>
       <c r="J151" s="74"/>
       <c r="K151" s="74"/>
@@ -6213,14 +8464,14 @@
       <c r="R151" s="74"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="90"/>
+      <c r="A152" s="86"/>
       <c r="B152" s="75"/>
       <c r="C152" s="60"/>
       <c r="D152" s="62"/>
       <c r="E152" s="62"/>
       <c r="F152" s="81"/>
       <c r="G152" s="80"/>
-      <c r="H152" s="85"/>
+      <c r="H152" s="81"/>
       <c r="I152" s="62"/>
       <c r="J152" s="75"/>
       <c r="K152" s="75"/>
@@ -6233,14 +8484,14 @@
       <c r="R152" s="75"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="89"/>
+      <c r="A153" s="85"/>
       <c r="B153" s="74"/>
       <c r="C153" s="64"/>
       <c r="D153" s="66"/>
       <c r="E153" s="66"/>
       <c r="F153" s="78"/>
       <c r="G153" s="77"/>
-      <c r="H153" s="86"/>
+      <c r="H153" s="78"/>
       <c r="I153" s="66"/>
       <c r="J153" s="74"/>
       <c r="K153" s="74"/>
@@ -6253,14 +8504,14 @@
       <c r="R153" s="74"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="90"/>
+      <c r="A154" s="86"/>
       <c r="B154" s="75"/>
       <c r="C154" s="60"/>
       <c r="D154" s="62"/>
       <c r="E154" s="62"/>
       <c r="F154" s="81"/>
       <c r="G154" s="80"/>
-      <c r="H154" s="85"/>
+      <c r="H154" s="81"/>
       <c r="I154" s="62"/>
       <c r="J154" s="75"/>
       <c r="K154" s="75"/>
@@ -6273,14 +8524,14 @@
       <c r="R154" s="75"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="89"/>
+      <c r="A155" s="85"/>
       <c r="B155" s="74"/>
       <c r="C155" s="64"/>
       <c r="D155" s="66"/>
       <c r="E155" s="66"/>
       <c r="F155" s="78"/>
       <c r="G155" s="77"/>
-      <c r="H155" s="86"/>
+      <c r="H155" s="78"/>
       <c r="I155" s="66"/>
       <c r="J155" s="74"/>
       <c r="K155" s="74"/>
@@ -6293,14 +8544,14 @@
       <c r="R155" s="74"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="90"/>
+      <c r="A156" s="86"/>
       <c r="B156" s="75"/>
       <c r="C156" s="60"/>
       <c r="D156" s="62"/>
       <c r="E156" s="62"/>
       <c r="F156" s="81"/>
       <c r="G156" s="80"/>
-      <c r="H156" s="85"/>
+      <c r="H156" s="81"/>
       <c r="I156" s="62"/>
       <c r="J156" s="75"/>
       <c r="K156" s="75"/>
@@ -6313,14 +8564,14 @@
       <c r="R156" s="75"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="89"/>
+      <c r="A157" s="85"/>
       <c r="B157" s="74"/>
       <c r="C157" s="64"/>
       <c r="D157" s="66"/>
       <c r="E157" s="66"/>
       <c r="F157" s="78"/>
       <c r="G157" s="77"/>
-      <c r="H157" s="86"/>
+      <c r="H157" s="78"/>
       <c r="I157" s="66"/>
       <c r="J157" s="74"/>
       <c r="K157" s="74"/>
@@ -6333,14 +8584,14 @@
       <c r="R157" s="74"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="90"/>
+      <c r="A158" s="86"/>
       <c r="B158" s="75"/>
       <c r="C158" s="60"/>
       <c r="D158" s="62"/>
       <c r="E158" s="62"/>
       <c r="F158" s="81"/>
       <c r="G158" s="80"/>
-      <c r="H158" s="85"/>
+      <c r="H158" s="81"/>
       <c r="I158" s="62"/>
       <c r="J158" s="75"/>
       <c r="K158" s="75"/>
@@ -6353,14 +8604,14 @@
       <c r="R158" s="75"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="89"/>
+      <c r="A159" s="85"/>
       <c r="B159" s="74"/>
       <c r="C159" s="64"/>
       <c r="D159" s="66"/>
       <c r="E159" s="66"/>
       <c r="F159" s="78"/>
       <c r="G159" s="77"/>
-      <c r="H159" s="86"/>
+      <c r="H159" s="78"/>
       <c r="I159" s="66"/>
       <c r="J159" s="74"/>
       <c r="K159" s="74"/>
@@ -6373,14 +8624,14 @@
       <c r="R159" s="74"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="90"/>
+      <c r="A160" s="86"/>
       <c r="B160" s="75"/>
       <c r="C160" s="60"/>
       <c r="D160" s="62"/>
       <c r="E160" s="62"/>
       <c r="F160" s="81"/>
       <c r="G160" s="80"/>
-      <c r="H160" s="85"/>
+      <c r="H160" s="81"/>
       <c r="I160" s="62"/>
       <c r="J160" s="75"/>
       <c r="K160" s="75"/>
@@ -6393,14 +8644,14 @@
       <c r="R160" s="75"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A161" s="89"/>
+      <c r="A161" s="85"/>
       <c r="B161" s="74"/>
       <c r="C161" s="64"/>
       <c r="D161" s="66"/>
       <c r="E161" s="66"/>
       <c r="F161" s="78"/>
       <c r="G161" s="77"/>
-      <c r="H161" s="86"/>
+      <c r="H161" s="78"/>
       <c r="I161" s="66"/>
       <c r="J161" s="74"/>
       <c r="K161" s="74"/>
@@ -6413,14 +8664,14 @@
       <c r="R161" s="74"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A162" s="90"/>
+      <c r="A162" s="86"/>
       <c r="B162" s="75"/>
       <c r="C162" s="60"/>
       <c r="D162" s="62"/>
       <c r="E162" s="62"/>
       <c r="F162" s="81"/>
       <c r="G162" s="80"/>
-      <c r="H162" s="85"/>
+      <c r="H162" s="81"/>
       <c r="I162" s="62"/>
       <c r="J162" s="75"/>
       <c r="K162" s="75"/>
@@ -6433,14 +8684,14 @@
       <c r="R162" s="75"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A163" s="89"/>
+      <c r="A163" s="85"/>
       <c r="B163" s="74"/>
       <c r="C163" s="64"/>
       <c r="D163" s="66"/>
       <c r="E163" s="66"/>
       <c r="F163" s="78"/>
       <c r="G163" s="77"/>
-      <c r="H163" s="86"/>
+      <c r="H163" s="78"/>
       <c r="I163" s="66"/>
       <c r="J163" s="74"/>
       <c r="K163" s="74"/>
@@ -6453,14 +8704,14 @@
       <c r="R163" s="74"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A164" s="90"/>
+      <c r="A164" s="86"/>
       <c r="B164" s="75"/>
       <c r="C164" s="60"/>
       <c r="D164" s="62"/>
       <c r="E164" s="62"/>
       <c r="F164" s="81"/>
       <c r="G164" s="80"/>
-      <c r="H164" s="85"/>
+      <c r="H164" s="81"/>
       <c r="I164" s="62"/>
       <c r="J164" s="75"/>
       <c r="K164" s="75"/>
@@ -6473,14 +8724,14 @@
       <c r="R164" s="75"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A165" s="89"/>
+      <c r="A165" s="85"/>
       <c r="B165" s="74"/>
       <c r="C165" s="64"/>
       <c r="D165" s="66"/>
       <c r="E165" s="66"/>
       <c r="F165" s="78"/>
       <c r="G165" s="77"/>
-      <c r="H165" s="86"/>
+      <c r="H165" s="78"/>
       <c r="I165" s="66"/>
       <c r="J165" s="74"/>
       <c r="K165" s="74"/>
@@ -6493,14 +8744,14 @@
       <c r="R165" s="74"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A166" s="90"/>
+      <c r="A166" s="86"/>
       <c r="B166" s="75"/>
       <c r="C166" s="60"/>
       <c r="D166" s="62"/>
       <c r="E166" s="62"/>
       <c r="F166" s="81"/>
       <c r="G166" s="80"/>
-      <c r="H166" s="85"/>
+      <c r="H166" s="81"/>
       <c r="I166" s="62"/>
       <c r="J166" s="75"/>
       <c r="K166" s="75"/>
@@ -6513,14 +8764,14 @@
       <c r="R166" s="75"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A167" s="89"/>
+      <c r="A167" s="85"/>
       <c r="B167" s="74"/>
       <c r="C167" s="64"/>
       <c r="D167" s="66"/>
       <c r="E167" s="66"/>
       <c r="F167" s="78"/>
       <c r="G167" s="77"/>
-      <c r="H167" s="86"/>
+      <c r="H167" s="78"/>
       <c r="I167" s="66"/>
       <c r="J167" s="74"/>
       <c r="K167" s="74"/>
@@ -6533,14 +8784,14 @@
       <c r="R167" s="74"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A168" s="90"/>
+      <c r="A168" s="86"/>
       <c r="B168" s="75"/>
       <c r="C168" s="60"/>
       <c r="D168" s="62"/>
       <c r="E168" s="62"/>
       <c r="F168" s="81"/>
       <c r="G168" s="80"/>
-      <c r="H168" s="85"/>
+      <c r="H168" s="81"/>
       <c r="I168" s="62"/>
       <c r="J168" s="75"/>
       <c r="K168" s="75"/>
@@ -6553,14 +8804,14 @@
       <c r="R168" s="75"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A169" s="89"/>
+      <c r="A169" s="85"/>
       <c r="B169" s="74"/>
       <c r="C169" s="64"/>
       <c r="D169" s="66"/>
       <c r="E169" s="66"/>
       <c r="F169" s="78"/>
       <c r="G169" s="77"/>
-      <c r="H169" s="86"/>
+      <c r="H169" s="78"/>
       <c r="I169" s="66"/>
       <c r="J169" s="74"/>
       <c r="K169" s="74"/>
@@ -6573,14 +8824,14 @@
       <c r="R169" s="74"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A170" s="90"/>
+      <c r="A170" s="86"/>
       <c r="B170" s="75"/>
       <c r="C170" s="60"/>
       <c r="D170" s="62"/>
       <c r="E170" s="62"/>
       <c r="F170" s="81"/>
       <c r="G170" s="80"/>
-      <c r="H170" s="85"/>
+      <c r="H170" s="81"/>
       <c r="I170" s="62"/>
       <c r="J170" s="75"/>
       <c r="K170" s="75"/>
@@ -6593,14 +8844,14 @@
       <c r="R170" s="75"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A171" s="89"/>
+      <c r="A171" s="85"/>
       <c r="B171" s="74"/>
       <c r="C171" s="64"/>
       <c r="D171" s="66"/>
       <c r="E171" s="66"/>
       <c r="F171" s="78"/>
       <c r="G171" s="77"/>
-      <c r="H171" s="86"/>
+      <c r="H171" s="78"/>
       <c r="I171" s="66"/>
       <c r="J171" s="74"/>
       <c r="K171" s="74"/>
@@ -6613,14 +8864,14 @@
       <c r="R171" s="74"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A172" s="90"/>
+      <c r="A172" s="86"/>
       <c r="B172" s="75"/>
       <c r="C172" s="60"/>
       <c r="D172" s="62"/>
       <c r="E172" s="62"/>
       <c r="F172" s="81"/>
       <c r="G172" s="80"/>
-      <c r="H172" s="85"/>
+      <c r="H172" s="81"/>
       <c r="I172" s="62"/>
       <c r="J172" s="75"/>
       <c r="K172" s="75"/>
@@ -6633,14 +8884,14 @@
       <c r="R172" s="75"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A173" s="89"/>
+      <c r="A173" s="85"/>
       <c r="B173" s="74"/>
       <c r="C173" s="64"/>
       <c r="D173" s="66"/>
       <c r="E173" s="66"/>
       <c r="F173" s="78"/>
       <c r="G173" s="77"/>
-      <c r="H173" s="86"/>
+      <c r="H173" s="78"/>
       <c r="I173" s="66"/>
       <c r="J173" s="74"/>
       <c r="K173" s="74"/>
@@ -6653,14 +8904,14 @@
       <c r="R173" s="74"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A174" s="90"/>
+      <c r="A174" s="86"/>
       <c r="B174" s="75"/>
       <c r="C174" s="60"/>
       <c r="D174" s="62"/>
       <c r="E174" s="62"/>
       <c r="F174" s="81"/>
       <c r="G174" s="80"/>
-      <c r="H174" s="85"/>
+      <c r="H174" s="81"/>
       <c r="I174" s="62"/>
       <c r="J174" s="75"/>
       <c r="K174" s="75"/>
@@ -6673,14 +8924,14 @@
       <c r="R174" s="75"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A175" s="89"/>
+      <c r="A175" s="85"/>
       <c r="B175" s="74"/>
       <c r="C175" s="64"/>
       <c r="D175" s="66"/>
       <c r="E175" s="66"/>
       <c r="F175" s="78"/>
       <c r="G175" s="77"/>
-      <c r="H175" s="86"/>
+      <c r="H175" s="78"/>
       <c r="I175" s="66"/>
       <c r="J175" s="74"/>
       <c r="K175" s="74"/>
@@ -6693,14 +8944,14 @@
       <c r="R175" s="74"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A176" s="90"/>
+      <c r="A176" s="86"/>
       <c r="B176" s="75"/>
       <c r="C176" s="60"/>
       <c r="D176" s="62"/>
       <c r="E176" s="62"/>
       <c r="F176" s="81"/>
       <c r="G176" s="80"/>
-      <c r="H176" s="85"/>
+      <c r="H176" s="81"/>
       <c r="I176" s="62"/>
       <c r="J176" s="75"/>
       <c r="K176" s="75"/>
@@ -6713,14 +8964,14 @@
       <c r="R176" s="75"/>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A177" s="89"/>
+      <c r="A177" s="85"/>
       <c r="B177" s="74"/>
       <c r="C177" s="64"/>
       <c r="D177" s="66"/>
       <c r="E177" s="66"/>
       <c r="F177" s="78"/>
       <c r="G177" s="77"/>
-      <c r="H177" s="86"/>
+      <c r="H177" s="78"/>
       <c r="I177" s="66"/>
       <c r="J177" s="74"/>
       <c r="K177" s="74"/>
@@ -6733,14 +8984,14 @@
       <c r="R177" s="74"/>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A178" s="90"/>
+      <c r="A178" s="86"/>
       <c r="B178" s="75"/>
       <c r="C178" s="60"/>
       <c r="D178" s="62"/>
       <c r="E178" s="62"/>
       <c r="F178" s="81"/>
       <c r="G178" s="80"/>
-      <c r="H178" s="85"/>
+      <c r="H178" s="81"/>
       <c r="I178" s="62"/>
       <c r="J178" s="75"/>
       <c r="K178" s="75"/>
@@ -6753,14 +9004,14 @@
       <c r="R178" s="75"/>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A179" s="89"/>
+      <c r="A179" s="85"/>
       <c r="B179" s="74"/>
       <c r="C179" s="64"/>
       <c r="D179" s="66"/>
       <c r="E179" s="66"/>
       <c r="F179" s="78"/>
       <c r="G179" s="77"/>
-      <c r="H179" s="86"/>
+      <c r="H179" s="78"/>
       <c r="I179" s="66"/>
       <c r="J179" s="74"/>
       <c r="K179" s="74"/>
@@ -6773,14 +9024,14 @@
       <c r="R179" s="74"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A180" s="90"/>
+      <c r="A180" s="86"/>
       <c r="B180" s="75"/>
       <c r="C180" s="60"/>
       <c r="D180" s="62"/>
       <c r="E180" s="62"/>
       <c r="F180" s="81"/>
       <c r="G180" s="80"/>
-      <c r="H180" s="85"/>
+      <c r="H180" s="81"/>
       <c r="I180" s="62"/>
       <c r="J180" s="75"/>
       <c r="K180" s="75"/>
@@ -6793,14 +9044,14 @@
       <c r="R180" s="75"/>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A181" s="89"/>
+      <c r="A181" s="85"/>
       <c r="B181" s="74"/>
       <c r="C181" s="64"/>
       <c r="D181" s="66"/>
       <c r="E181" s="66"/>
       <c r="F181" s="78"/>
       <c r="G181" s="77"/>
-      <c r="H181" s="86"/>
+      <c r="H181" s="78"/>
       <c r="I181" s="66"/>
       <c r="J181" s="74"/>
       <c r="K181" s="74"/>
@@ -6813,14 +9064,14 @@
       <c r="R181" s="74"/>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A182" s="90"/>
+      <c r="A182" s="86"/>
       <c r="B182" s="75"/>
       <c r="C182" s="60"/>
       <c r="D182" s="62"/>
       <c r="E182" s="62"/>
       <c r="F182" s="81"/>
       <c r="G182" s="80"/>
-      <c r="H182" s="85"/>
+      <c r="H182" s="81"/>
       <c r="I182" s="62"/>
       <c r="J182" s="75"/>
       <c r="K182" s="75"/>
@@ -6833,14 +9084,14 @@
       <c r="R182" s="75"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A183" s="89"/>
+      <c r="A183" s="85"/>
       <c r="B183" s="74"/>
       <c r="C183" s="64"/>
       <c r="D183" s="66"/>
       <c r="E183" s="66"/>
       <c r="F183" s="78"/>
       <c r="G183" s="77"/>
-      <c r="H183" s="86"/>
+      <c r="H183" s="78"/>
       <c r="I183" s="66"/>
       <c r="J183" s="74"/>
       <c r="K183" s="74"/>
@@ -6853,14 +9104,14 @@
       <c r="R183" s="74"/>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A184" s="90"/>
+      <c r="A184" s="86"/>
       <c r="B184" s="75"/>
       <c r="C184" s="60"/>
       <c r="D184" s="62"/>
       <c r="E184" s="62"/>
       <c r="F184" s="81"/>
       <c r="G184" s="80"/>
-      <c r="H184" s="85"/>
+      <c r="H184" s="81"/>
       <c r="I184" s="62"/>
       <c r="J184" s="75"/>
       <c r="K184" s="75"/>
@@ -6873,14 +9124,14 @@
       <c r="R184" s="75"/>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A185" s="89"/>
+      <c r="A185" s="85"/>
       <c r="B185" s="74"/>
       <c r="C185" s="64"/>
       <c r="D185" s="66"/>
       <c r="E185" s="66"/>
       <c r="F185" s="78"/>
       <c r="G185" s="77"/>
-      <c r="H185" s="86"/>
+      <c r="H185" s="78"/>
       <c r="I185" s="66"/>
       <c r="J185" s="74"/>
       <c r="K185" s="74"/>
@@ -6893,14 +9144,14 @@
       <c r="R185" s="74"/>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A186" s="90"/>
+      <c r="A186" s="86"/>
       <c r="B186" s="75"/>
       <c r="C186" s="60"/>
       <c r="D186" s="62"/>
       <c r="E186" s="62"/>
       <c r="F186" s="81"/>
       <c r="G186" s="80"/>
-      <c r="H186" s="85"/>
+      <c r="H186" s="81"/>
       <c r="I186" s="62"/>
       <c r="J186" s="75"/>
       <c r="K186" s="75"/>
@@ -6913,14 +9164,14 @@
       <c r="R186" s="75"/>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A187" s="89"/>
+      <c r="A187" s="85"/>
       <c r="B187" s="74"/>
       <c r="C187" s="64"/>
       <c r="D187" s="66"/>
       <c r="E187" s="66"/>
       <c r="F187" s="78"/>
       <c r="G187" s="77"/>
-      <c r="H187" s="86"/>
+      <c r="H187" s="78"/>
       <c r="I187" s="66"/>
       <c r="J187" s="74"/>
       <c r="K187" s="74"/>
@@ -6933,14 +9184,14 @@
       <c r="R187" s="74"/>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A188" s="90"/>
+      <c r="A188" s="86"/>
       <c r="B188" s="75"/>
       <c r="C188" s="60"/>
       <c r="D188" s="62"/>
       <c r="E188" s="62"/>
       <c r="F188" s="81"/>
       <c r="G188" s="80"/>
-      <c r="H188" s="85"/>
+      <c r="H188" s="81"/>
       <c r="I188" s="62"/>
       <c r="J188" s="75"/>
       <c r="K188" s="75"/>
@@ -6953,14 +9204,14 @@
       <c r="R188" s="75"/>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A189" s="89"/>
+      <c r="A189" s="85"/>
       <c r="B189" s="74"/>
       <c r="C189" s="64"/>
       <c r="D189" s="66"/>
       <c r="E189" s="66"/>
       <c r="F189" s="78"/>
       <c r="G189" s="77"/>
-      <c r="H189" s="86"/>
+      <c r="H189" s="78"/>
       <c r="I189" s="66"/>
       <c r="J189" s="74"/>
       <c r="K189" s="74"/>
@@ -6973,14 +9224,14 @@
       <c r="R189" s="74"/>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A190" s="90"/>
+      <c r="A190" s="86"/>
       <c r="B190" s="75"/>
       <c r="C190" s="60"/>
       <c r="D190" s="62"/>
       <c r="E190" s="62"/>
       <c r="F190" s="81"/>
       <c r="G190" s="80"/>
-      <c r="H190" s="85"/>
+      <c r="H190" s="81"/>
       <c r="I190" s="62"/>
       <c r="J190" s="75"/>
       <c r="K190" s="75"/>
@@ -6993,14 +9244,14 @@
       <c r="R190" s="75"/>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A191" s="89"/>
+      <c r="A191" s="85"/>
       <c r="B191" s="74"/>
       <c r="C191" s="64"/>
       <c r="D191" s="66"/>
       <c r="E191" s="66"/>
       <c r="F191" s="78"/>
       <c r="G191" s="77"/>
-      <c r="H191" s="86"/>
+      <c r="H191" s="78"/>
       <c r="I191" s="66"/>
       <c r="J191" s="74"/>
       <c r="K191" s="74"/>
@@ -7013,14 +9264,14 @@
       <c r="R191" s="74"/>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A192" s="90"/>
+      <c r="A192" s="86"/>
       <c r="B192" s="75"/>
       <c r="C192" s="60"/>
       <c r="D192" s="62"/>
       <c r="E192" s="62"/>
       <c r="F192" s="81"/>
       <c r="G192" s="80"/>
-      <c r="H192" s="85"/>
+      <c r="H192" s="81"/>
       <c r="I192" s="62"/>
       <c r="J192" s="75"/>
       <c r="K192" s="75"/>
@@ -7039,7 +9290,7 @@
       <c r="E193" s="5"/>
       <c r="F193" s="6"/>
       <c r="G193" s="7"/>
-      <c r="H193" s="87"/>
+      <c r="H193" s="6"/>
       <c r="I193" s="5"/>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
@@ -7057,7 +9308,7 @@
       <c r="E194" s="5"/>
       <c r="F194" s="6"/>
       <c r="G194" s="7"/>
-      <c r="H194" s="87"/>
+      <c r="H194" s="6"/>
       <c r="I194" s="5"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
@@ -7075,7 +9326,7 @@
       <c r="E195" s="5"/>
       <c r="F195" s="6"/>
       <c r="G195" s="7"/>
-      <c r="H195" s="87"/>
+      <c r="H195" s="6"/>
       <c r="I195" s="5"/>
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
@@ -7093,7 +9344,7 @@
       <c r="E196" s="5"/>
       <c r="F196" s="6"/>
       <c r="G196" s="7"/>
-      <c r="H196" s="87"/>
+      <c r="H196" s="6"/>
       <c r="I196" s="5"/>
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
@@ -7111,7 +9362,7 @@
       <c r="E197" s="5"/>
       <c r="F197" s="6"/>
       <c r="G197" s="7"/>
-      <c r="H197" s="87"/>
+      <c r="H197" s="6"/>
       <c r="I197" s="5"/>
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
@@ -7129,7 +9380,7 @@
       <c r="E198" s="5"/>
       <c r="F198" s="6"/>
       <c r="G198" s="7"/>
-      <c r="H198" s="87"/>
+      <c r="H198" s="6"/>
       <c r="I198" s="5"/>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
@@ -7147,7 +9398,7 @@
       <c r="E199" s="5"/>
       <c r="F199" s="6"/>
       <c r="G199" s="7"/>
-      <c r="H199" s="87"/>
+      <c r="H199" s="6"/>
       <c r="I199" s="5"/>
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
@@ -7165,7 +9416,7 @@
       <c r="E200" s="5"/>
       <c r="F200" s="6"/>
       <c r="G200" s="7"/>
-      <c r="H200" s="87"/>
+      <c r="H200" s="6"/>
       <c r="I200" s="5"/>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
@@ -7183,7 +9434,7 @@
       <c r="E201" s="5"/>
       <c r="F201" s="6"/>
       <c r="G201" s="7"/>
-      <c r="H201" s="87"/>
+      <c r="H201" s="6"/>
       <c r="I201" s="5"/>
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
@@ -7201,7 +9452,7 @@
       <c r="E202" s="5"/>
       <c r="F202" s="6"/>
       <c r="G202" s="7"/>
-      <c r="H202" s="87"/>
+      <c r="H202" s="6"/>
       <c r="I202" s="5"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
@@ -7219,7 +9470,7 @@
       <c r="E203" s="5"/>
       <c r="F203" s="6"/>
       <c r="G203" s="7"/>
-      <c r="H203" s="87"/>
+      <c r="H203" s="6"/>
       <c r="I203" s="5"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -7237,7 +9488,7 @@
       <c r="E204" s="5"/>
       <c r="F204" s="6"/>
       <c r="G204" s="7"/>
-      <c r="H204" s="87"/>
+      <c r="H204" s="6"/>
       <c r="I204" s="5"/>
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
@@ -7255,7 +9506,7 @@
       <c r="E205" s="5"/>
       <c r="F205" s="6"/>
       <c r="G205" s="7"/>
-      <c r="H205" s="87"/>
+      <c r="H205" s="6"/>
       <c r="I205" s="5"/>
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
@@ -7273,7 +9524,7 @@
       <c r="E206" s="5"/>
       <c r="F206" s="6"/>
       <c r="G206" s="7"/>
-      <c r="H206" s="87"/>
+      <c r="H206" s="6"/>
       <c r="I206" s="5"/>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
@@ -7291,7 +9542,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="6"/>
       <c r="G207" s="7"/>
-      <c r="H207" s="87"/>
+      <c r="H207" s="6"/>
       <c r="I207" s="5"/>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
@@ -7309,7 +9560,7 @@
       <c r="E208" s="5"/>
       <c r="F208" s="6"/>
       <c r="G208" s="7"/>
-      <c r="H208" s="87"/>
+      <c r="H208" s="6"/>
       <c r="I208" s="5"/>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
@@ -7327,7 +9578,7 @@
       <c r="E209" s="5"/>
       <c r="F209" s="6"/>
       <c r="G209" s="7"/>
-      <c r="H209" s="87"/>
+      <c r="H209" s="6"/>
       <c r="I209" s="5"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
@@ -7345,7 +9596,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="6"/>
       <c r="G210" s="7"/>
-      <c r="H210" s="87"/>
+      <c r="H210" s="6"/>
       <c r="I210" s="5"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
@@ -7363,7 +9614,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="6"/>
       <c r="G211" s="7"/>
-      <c r="H211" s="87"/>
+      <c r="H211" s="6"/>
       <c r="I211" s="5"/>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
@@ -7381,7 +9632,7 @@
       <c r="E212" s="5"/>
       <c r="F212" s="6"/>
       <c r="G212" s="7"/>
-      <c r="H212" s="87"/>
+      <c r="H212" s="6"/>
       <c r="I212" s="5"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
@@ -7399,7 +9650,7 @@
       <c r="E213" s="5"/>
       <c r="F213" s="6"/>
       <c r="G213" s="7"/>
-      <c r="H213" s="87"/>
+      <c r="H213" s="6"/>
       <c r="I213" s="5"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
@@ -7417,7 +9668,7 @@
       <c r="E214" s="5"/>
       <c r="F214" s="6"/>
       <c r="G214" s="7"/>
-      <c r="H214" s="87"/>
+      <c r="H214" s="6"/>
       <c r="I214" s="5"/>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
@@ -7435,7 +9686,7 @@
       <c r="E215" s="5"/>
       <c r="F215" s="6"/>
       <c r="G215" s="7"/>
-      <c r="H215" s="87"/>
+      <c r="H215" s="6"/>
       <c r="I215" s="5"/>
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
@@ -7453,7 +9704,7 @@
       <c r="E216" s="5"/>
       <c r="F216" s="6"/>
       <c r="G216" s="7"/>
-      <c r="H216" s="87"/>
+      <c r="H216" s="6"/>
       <c r="I216" s="5"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
@@ -7471,7 +9722,7 @@
       <c r="E217" s="5"/>
       <c r="F217" s="6"/>
       <c r="G217" s="7"/>
-      <c r="H217" s="87"/>
+      <c r="H217" s="6"/>
       <c r="I217" s="5"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
@@ -7489,7 +9740,7 @@
       <c r="E218" s="5"/>
       <c r="F218" s="6"/>
       <c r="G218" s="7"/>
-      <c r="H218" s="87"/>
+      <c r="H218" s="6"/>
       <c r="I218" s="5"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
@@ -7507,7 +9758,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="6"/>
       <c r="G219" s="7"/>
-      <c r="H219" s="87"/>
+      <c r="H219" s="6"/>
       <c r="I219" s="5"/>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
@@ -7525,7 +9776,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="6"/>
       <c r="G220" s="7"/>
-      <c r="H220" s="87"/>
+      <c r="H220" s="6"/>
       <c r="I220" s="5"/>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
@@ -7543,7 +9794,7 @@
       <c r="E221" s="5"/>
       <c r="F221" s="6"/>
       <c r="G221" s="7"/>
-      <c r="H221" s="87"/>
+      <c r="H221" s="6"/>
       <c r="I221" s="5"/>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
@@ -7561,7 +9812,7 @@
       <c r="E222" s="5"/>
       <c r="F222" s="6"/>
       <c r="G222" s="7"/>
-      <c r="H222" s="87"/>
+      <c r="H222" s="6"/>
       <c r="I222" s="5"/>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
@@ -7579,7 +9830,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="6"/>
       <c r="G223" s="7"/>
-      <c r="H223" s="87"/>
+      <c r="H223" s="6"/>
       <c r="I223" s="5"/>
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
@@ -7597,7 +9848,7 @@
       <c r="E224" s="5"/>
       <c r="F224" s="6"/>
       <c r="G224" s="7"/>
-      <c r="H224" s="87"/>
+      <c r="H224" s="6"/>
       <c r="I224" s="5"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
@@ -7615,7 +9866,7 @@
       <c r="E225" s="5"/>
       <c r="F225" s="6"/>
       <c r="G225" s="7"/>
-      <c r="H225" s="87"/>
+      <c r="H225" s="6"/>
       <c r="I225" s="5"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
@@ -7633,7 +9884,7 @@
       <c r="E226" s="5"/>
       <c r="F226" s="6"/>
       <c r="G226" s="7"/>
-      <c r="H226" s="87"/>
+      <c r="H226" s="6"/>
       <c r="I226" s="5"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
@@ -7651,7 +9902,7 @@
       <c r="E227" s="5"/>
       <c r="F227" s="6"/>
       <c r="G227" s="7"/>
-      <c r="H227" s="87"/>
+      <c r="H227" s="6"/>
       <c r="I227" s="5"/>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
@@ -7669,7 +9920,7 @@
       <c r="E228" s="5"/>
       <c r="F228" s="6"/>
       <c r="G228" s="7"/>
-      <c r="H228" s="87"/>
+      <c r="H228" s="6"/>
       <c r="I228" s="5"/>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
@@ -7687,7 +9938,7 @@
       <c r="E229" s="5"/>
       <c r="F229" s="6"/>
       <c r="G229" s="7"/>
-      <c r="H229" s="87"/>
+      <c r="H229" s="6"/>
       <c r="I229" s="5"/>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
@@ -7705,7 +9956,7 @@
       <c r="E230" s="5"/>
       <c r="F230" s="6"/>
       <c r="G230" s="7"/>
-      <c r="H230" s="87"/>
+      <c r="H230" s="6"/>
       <c r="I230" s="5"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
@@ -7723,7 +9974,7 @@
       <c r="E231" s="5"/>
       <c r="F231" s="6"/>
       <c r="G231" s="7"/>
-      <c r="H231" s="87"/>
+      <c r="H231" s="6"/>
       <c r="I231" s="5"/>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
@@ -7741,7 +9992,7 @@
       <c r="E232" s="5"/>
       <c r="F232" s="6"/>
       <c r="G232" s="7"/>
-      <c r="H232" s="87"/>
+      <c r="H232" s="6"/>
       <c r="I232" s="5"/>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
@@ -7759,7 +10010,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="6"/>
       <c r="G233" s="7"/>
-      <c r="H233" s="87"/>
+      <c r="H233" s="6"/>
       <c r="I233" s="5"/>
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
@@ -7777,7 +10028,7 @@
       <c r="E234" s="5"/>
       <c r="F234" s="6"/>
       <c r="G234" s="7"/>
-      <c r="H234" s="87"/>
+      <c r="H234" s="6"/>
       <c r="I234" s="5"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
@@ -7795,7 +10046,7 @@
       <c r="E235" s="5"/>
       <c r="F235" s="6"/>
       <c r="G235" s="7"/>
-      <c r="H235" s="87"/>
+      <c r="H235" s="6"/>
       <c r="I235" s="5"/>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
@@ -7813,7 +10064,7 @@
       <c r="E236" s="5"/>
       <c r="F236" s="6"/>
       <c r="G236" s="7"/>
-      <c r="H236" s="87"/>
+      <c r="H236" s="6"/>
       <c r="I236" s="5"/>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
@@ -7831,7 +10082,7 @@
       <c r="E237" s="5"/>
       <c r="F237" s="6"/>
       <c r="G237" s="7"/>
-      <c r="H237" s="87"/>
+      <c r="H237" s="6"/>
       <c r="I237" s="5"/>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -7849,7 +10100,7 @@
       <c r="E238" s="5"/>
       <c r="F238" s="6"/>
       <c r="G238" s="7"/>
-      <c r="H238" s="87"/>
+      <c r="H238" s="6"/>
       <c r="I238" s="5"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
@@ -7867,7 +10118,7 @@
       <c r="E239" s="5"/>
       <c r="F239" s="6"/>
       <c r="G239" s="7"/>
-      <c r="H239" s="87"/>
+      <c r="H239" s="6"/>
       <c r="I239" s="5"/>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
@@ -7885,7 +10136,7 @@
       <c r="E240" s="5"/>
       <c r="F240" s="6"/>
       <c r="G240" s="7"/>
-      <c r="H240" s="87"/>
+      <c r="H240" s="6"/>
       <c r="I240" s="5"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
@@ -7903,7 +10154,7 @@
       <c r="E241" s="5"/>
       <c r="F241" s="6"/>
       <c r="G241" s="7"/>
-      <c r="H241" s="87"/>
+      <c r="H241" s="6"/>
       <c r="I241" s="5"/>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
@@ -7921,7 +10172,7 @@
       <c r="E242" s="5"/>
       <c r="F242" s="6"/>
       <c r="G242" s="7"/>
-      <c r="H242" s="87"/>
+      <c r="H242" s="6"/>
       <c r="I242" s="5"/>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
@@ -7939,7 +10190,7 @@
       <c r="E243" s="5"/>
       <c r="F243" s="6"/>
       <c r="G243" s="7"/>
-      <c r="H243" s="87"/>
+      <c r="H243" s="6"/>
       <c r="I243" s="5"/>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
@@ -7957,7 +10208,7 @@
       <c r="E244" s="5"/>
       <c r="F244" s="6"/>
       <c r="G244" s="7"/>
-      <c r="H244" s="87"/>
+      <c r="H244" s="6"/>
       <c r="I244" s="5"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
@@ -7975,7 +10226,7 @@
       <c r="E245" s="5"/>
       <c r="F245" s="6"/>
       <c r="G245" s="7"/>
-      <c r="H245" s="87"/>
+      <c r="H245" s="6"/>
       <c r="I245" s="5"/>
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
@@ -7993,7 +10244,7 @@
       <c r="E246" s="5"/>
       <c r="F246" s="6"/>
       <c r="G246" s="7"/>
-      <c r="H246" s="87"/>
+      <c r="H246" s="6"/>
       <c r="I246" s="5"/>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
@@ -8005,15 +10256,17 @@
       <c r="R246" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R27"/>
   <sortState ref="A2:R29">
     <sortCondition ref="C4"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
-      <pane xSplit="4" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" showAutoFilter="1">
+      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:R27"/>
     </customSheetView>
     <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
       <pane xSplit="4" ySplit="1" topLeftCell="P184" activePane="bottomRight" state="frozenSplit"/>
@@ -8050,10 +10303,10 @@
   <dimension ref="A1:U237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8075,72 +10328,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95" t="s">
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95" t="s">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="95" t="s">
+      <c r="R1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="99"/>
+      <c r="S1" s="97"/>
       <c r="T1" s="93" t="s">
         <v>11</v>
       </c>
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="96"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="82" t="s">
         <v>24</v>
       </c>
@@ -8156,7 +10409,7 @@
       <c r="P2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="96"/>
+      <c r="Q2" s="92"/>
       <c r="R2" s="13" t="s">
         <v>21</v>
       </c>
@@ -9299,7 +11552,7 @@
       </c>
       <c r="T19" s="34" t="str">
         <f>Заказы!E17</f>
-        <v>Созвон насчет пленки, Закончить техзадание-- Выяснить у игоря ширину пакетп нахлеста и пленки---Позвонить по пленке</v>
+        <v>В процессе---Созвон насчет пленки, Закончить техзадание-- Выяснить у игоря ширину пакетп нахлеста и пленки---Позвонить по пленке</v>
       </c>
       <c r="U19" s="11"/>
     </row>
@@ -9716,7 +11969,7 @@
       </c>
       <c r="C26" s="35" t="str">
         <f>Заказы!D24</f>
-        <v>ТН-1, ТН-2</v>
+        <v>ТН-1, ТН-2 + ДЖ-250(разливатор) + АЦ-30</v>
       </c>
       <c r="D26" s="35" t="str">
         <f>CONCATENATE(Заказы!C24," ",Заказы!P24," ",Заказы!A24," ",Заказы!F24)</f>
@@ -9766,7 +12019,7 @@
       </c>
       <c r="T26" s="41" t="str">
         <f>Заказы!E24</f>
-        <v>Позвонят</v>
+        <v>Позвонят, "палюбому" берут разливатор))</v>
       </c>
       <c r="U26" s="11"/>
     </row>
@@ -9831,7 +12084,7 @@
       </c>
       <c r="T27" s="41" t="str">
         <f>Заказы!E25</f>
-        <v>Позвонить--отправили схему разметки пленки и оборудование</v>
+        <v>Позвонит--отправили схему разметки пленки и оборудование</v>
       </c>
       <c r="U27" s="11"/>
     </row>
@@ -9896,7 +12149,7 @@
       </c>
       <c r="T28" s="41" t="str">
         <f>Заказы!E26</f>
-        <v>Узнать высоту загрузки и необходимую производительность. После узнать цену на транспортер и вибролоток, перезвонить</v>
+        <v>Ждет фасовочный автомат, контроль в среду--Узнать высоту загрузки и необходимую производительность. После узнать цену на транспортер и вибролоток, перезвонить</v>
       </c>
       <c r="U28" s="11"/>
     </row>
@@ -9961,7 +12214,7 @@
       </c>
       <c r="T29" s="41" t="str">
         <f>Заказы!E27</f>
-        <v>Созвонится</v>
+        <v>Контроль созвон--Созвонится</v>
       </c>
       <c r="U29" s="11"/>
     </row>
@@ -9972,15 +12225,15 @@
       </c>
       <c r="B30" s="36">
         <f>Заказы!K28</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="35">
+        <v>42201</v>
+      </c>
+      <c r="C30" s="35" t="str">
         <f>Заказы!D28</f>
-        <v>0</v>
+        <v>ТН-1</v>
       </c>
       <c r="D30" s="35" t="str">
         <f>CONCATENATE(Заказы!C28," ",Заказы!P28," ",Заказы!A28," ",Заказы!F28)</f>
-        <v xml:space="preserve">   </v>
+        <v>Елена Романенко  050-353-04-51 romanenko@fornetti.com.ua</v>
       </c>
       <c r="E30" s="28">
         <f>Заказы!G28</f>
@@ -10024,9 +12277,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T30" s="41">
+      <c r="T30" s="41" t="str">
         <f>Заказы!E28</f>
-        <v>0</v>
+        <v>Показать в работе</v>
       </c>
       <c r="U30" s="11"/>
     </row>
@@ -10037,15 +12290,15 @@
       </c>
       <c r="B31" s="36">
         <f>Заказы!K29</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="28">
+        <v>42201</v>
+      </c>
+      <c r="C31" s="28" t="str">
         <f>Заказы!D29</f>
-        <v>0</v>
+        <v>ПАФ</v>
       </c>
       <c r="D31" s="35" t="str">
         <f>CONCATENATE(Заказы!C29," ",Заказы!P29," ",Заказы!A29," ",Заказы!F29)</f>
-        <v xml:space="preserve">   </v>
+        <v>Андрей  066-325-22-54 andrewborotko@gmail.com</v>
       </c>
       <c r="E31" s="28">
         <f>Заказы!G29</f>
@@ -10089,9 +12342,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T31" s="41">
+      <c r="T31" s="41" t="str">
         <f>Заказы!E29</f>
-        <v>0</v>
+        <v>Созвон</v>
       </c>
       <c r="U31" s="11"/>
     </row>
@@ -16338,8 +18591,8 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
-      <pane xSplit="4" ySplit="2" topLeftCell="E17" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -16351,11 +18604,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="16">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -16367,6 +18615,11 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -16378,183 +18631,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="13.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21">
-        <v>42199</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="21">
-        <v>42185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="21">
-        <v>42193</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O3" s="21">
-        <v>42171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S7" s="3"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
-      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection activeCell="F1" sqref="F1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
-      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="timePeriod" dxfId="45" priority="1" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="44" priority="2" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16724,14 +18849,12 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
-        <v>42200</v>
-      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>235</v>
@@ -16753,30 +18876,21 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
-        <v>42200</v>
+        <v>42213</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G6" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -16786,52 +18900,28 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
-        <v>42213</v>
+        <v>42231</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="P7" s="2"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="21">
-        <v>42231</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
-      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
@@ -16841,13 +18931,13 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="timePeriod" dxfId="43" priority="1" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="45" priority="1" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="42" priority="2" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="44" priority="2" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="41" priority="3" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="43" priority="3" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16856,6 +18946,174 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="2" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="13.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21">
+        <v>42199</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" s="21">
+        <v>42185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3" s="21">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" s="3"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="timePeriod" dxfId="42" priority="1" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="41" priority="2" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -17028,432 +19286,484 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:R8"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="D1" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="F1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="G1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="H1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="I1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="K1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="L1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="M1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="N1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="P1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="Q1" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="R1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="56" t="s">
+      <c r="S1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="64" t="s">
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="66">
+        <f>I2*B2</f>
+        <v>520</v>
+      </c>
+      <c r="B2" s="98">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="F2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="66">
+      <c r="G2" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="64"/>
+      <c r="I2" s="66">
         <v>5200</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
       <c r="J2" s="66"/>
-      <c r="K2" s="65">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="65">
         <v>42156</v>
       </c>
-      <c r="L2" s="65">
+      <c r="N2" s="65">
         <v>42159</v>
       </c>
-      <c r="M2" s="66">
+      <c r="O2" s="66">
         <v>2386</v>
       </c>
-      <c r="N2" s="65">
+      <c r="P2" s="65">
         <v>42165</v>
       </c>
-      <c r="O2" s="65">
+      <c r="Q2" s="65">
         <v>42167</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-    </row>
-    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="R2" s="64"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="66">
+        <v>4000</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="F3" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3" s="64" t="s">
+      <c r="G3" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="66">
+      <c r="I3" s="66">
         <v>157900</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="J3" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="K3" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="65">
+      <c r="L3" s="66"/>
+      <c r="M3" s="65">
         <v>42071</v>
       </c>
-      <c r="L3" s="65">
+      <c r="N3" s="65">
         <v>42139</v>
       </c>
-      <c r="M3" s="66">
+      <c r="O3" s="66">
         <v>2375</v>
       </c>
-      <c r="N3" s="65">
+      <c r="P3" s="65">
         <v>42162</v>
       </c>
-      <c r="O3" s="65">
+      <c r="Q3" s="65">
         <v>42192</v>
       </c>
-      <c r="P3" s="64" t="s">
+      <c r="R3" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="Q3" s="66">
+      <c r="S3" s="66">
         <v>89</v>
       </c>
-      <c r="R3" s="66"/>
-    </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="T3" s="66"/>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="66">
+        <f>I4*B4</f>
+        <v>520</v>
+      </c>
+      <c r="B4" s="98">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="64" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="F4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="G4" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="H4" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="66">
+      <c r="I4" s="66">
         <v>5200</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
       <c r="J4" s="66"/>
-      <c r="K4" s="65">
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="65">
         <v>42097</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-    </row>
-    <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+    </row>
+    <row r="5" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="66">
+        <f>I5*B5</f>
+        <v>420</v>
+      </c>
+      <c r="B5" s="99">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="60" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="F5" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="F5" s="60" t="s">
+      <c r="G5" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="62">
+      <c r="I5" s="62">
         <v>4200</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="J5" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="K5" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="61">
+      <c r="L5" s="62"/>
+      <c r="M5" s="61">
         <v>42186</v>
       </c>
-      <c r="L5" s="61">
+      <c r="N5" s="61">
         <v>42187</v>
       </c>
-      <c r="M5" s="62">
+      <c r="O5" s="62">
         <v>2532</v>
       </c>
-      <c r="N5" s="61">
+      <c r="P5" s="61">
         <v>42200</v>
       </c>
-      <c r="O5" s="61">
+      <c r="Q5" s="61">
         <v>42200</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="R5" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-    </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="64" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66" t="s">
+      <c r="F6" s="66"/>
+      <c r="G6" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="H6" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="K6" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="65">
+      <c r="L6" s="66"/>
+      <c r="M6" s="65">
         <v>42187</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
       <c r="N6" s="66"/>
       <c r="O6" s="66"/>
-      <c r="P6" s="64"/>
+      <c r="P6" s="66"/>
       <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-    </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62" t="s">
+      <c r="R6" s="64"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="I7" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="K7" s="62" t="s">
+        <v>244</v>
+      </c>
       <c r="L7" s="62"/>
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
       <c r="O7" s="62"/>
-      <c r="P7" s="60"/>
+      <c r="P7" s="62"/>
       <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1">
+  <customSheetViews>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <conditionalFormatting sqref="D1">
     <cfRule type="endsWith" dxfId="39" priority="25" operator="endsWith" text="*">
-      <formula>RIGHT(B1,LEN("*"))="*"</formula>
+      <formula>RIGHT(D1,LEN("*"))="*"</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="38" priority="26" timePeriod="today">
-      <formula>FLOOR(B1,1)=TODAY()</formula>
+      <formula>FLOOR(D1,1)=TODAY()</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="37" priority="27" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(D1,1)&lt;=6,FLOOR(D1,1)&lt;=TODAY())</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="36" priority="28" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(D1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="D2">
     <cfRule type="endsWith" dxfId="35" priority="21" operator="endsWith" text="*">
-      <formula>RIGHT(B2,LEN("*"))="*"</formula>
+      <formula>RIGHT(D2,LEN("*"))="*"</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="34" priority="22" timePeriod="today">
-      <formula>FLOOR(B2,1)=TODAY()</formula>
+      <formula>FLOOR(D2,1)=TODAY()</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="33" priority="23" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(B2,1)&lt;=6,FLOOR(B2,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(D2,1)&lt;=6,FLOOR(D2,1)&lt;=TODAY())</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="32" priority="24" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(D2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="D3">
     <cfRule type="endsWith" dxfId="31" priority="17" operator="endsWith" text="*">
-      <formula>RIGHT(B3,LEN("*"))="*"</formula>
+      <formula>RIGHT(D3,LEN("*"))="*"</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="30" priority="18" timePeriod="today">
-      <formula>FLOOR(B3,1)=TODAY()</formula>
+      <formula>FLOOR(D3,1)=TODAY()</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="29" priority="19" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(B3,1)&lt;=6,FLOOR(B3,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(D3,1)&lt;=6,FLOOR(D3,1)&lt;=TODAY())</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="28" priority="20" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(B3,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B3,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(D3,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D3,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="D4">
     <cfRule type="endsWith" dxfId="27" priority="13" operator="endsWith" text="*">
-      <formula>RIGHT(B4,LEN("*"))="*"</formula>
+      <formula>RIGHT(D4,LEN("*"))="*"</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="26" priority="14" timePeriod="today">
-      <formula>FLOOR(B4,1)=TODAY()</formula>
+      <formula>FLOOR(D4,1)=TODAY()</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="25" priority="15" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(B4,1)&lt;=6,FLOOR(B4,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(D4,1)&lt;=6,FLOOR(D4,1)&lt;=TODAY())</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="24" priority="16" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(B4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(D4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="D5">
     <cfRule type="endsWith" dxfId="23" priority="9" operator="endsWith" text="*">
-      <formula>RIGHT(B5,LEN("*"))="*"</formula>
+      <formula>RIGHT(D5,LEN("*"))="*"</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="22" priority="10" timePeriod="today">
-      <formula>FLOOR(B5,1)=TODAY()</formula>
+      <formula>FLOOR(D5,1)=TODAY()</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="21" priority="11" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(B5,1)&lt;=6,FLOOR(B5,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(D5,1)&lt;=6,FLOOR(D5,1)&lt;=TODAY())</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="20" priority="12" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(B5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(D5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="D6">
     <cfRule type="endsWith" dxfId="19" priority="5" operator="endsWith" text="*">
-      <formula>RIGHT(B6,LEN("*"))="*"</formula>
+      <formula>RIGHT(D6,LEN("*"))="*"</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="18" priority="6" timePeriod="today">
-      <formula>FLOOR(B6,1)=TODAY()</formula>
+      <formula>FLOOR(D6,1)=TODAY()</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="17" priority="7" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(B6,1)&lt;=6,FLOOR(B6,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(D6,1)&lt;=6,FLOOR(D6,1)&lt;=TODAY())</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="16" priority="8" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(B6,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B6,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(D6,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D6,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="D7">
     <cfRule type="endsWith" dxfId="15" priority="1" operator="endsWith" text="*">
-      <formula>RIGHT(B7,LEN("*"))="*"</formula>
+      <formula>RIGHT(D7,LEN("*"))="*"</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="14" priority="2" timePeriod="today">
-      <formula>FLOOR(B7,1)=TODAY()</formula>
+      <formula>FLOOR(D7,1)=TODAY()</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="13" priority="3" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(B7,1)&lt;=6,FLOOR(B7,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(D7,1)&lt;=6,FLOOR(D7,1)&lt;=TODAY())</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="12" priority="4" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(B7,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B7,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(D7,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D7,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17523,20 +19833,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="62" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G2" s="62">
         <v>8500</v>
@@ -17545,10 +19855,10 @@
         <v>147</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K2" s="61">
         <v>42194</v>
@@ -17573,7 +19883,7 @@
         <v>113</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F3" s="60" t="s">
         <v>139</v>
@@ -17604,6 +19914,13 @@
       <c r="R3" s="62"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <conditionalFormatting sqref="B1">
     <cfRule type="endsWith" dxfId="11" priority="9" operator="endsWith" text="*">
       <formula>RIGHT(B1,LEN("*"))="*"</formula>

--- a/Заказы/Заказы.xlsx
+++ b/Заказы/Заказы.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="419">
   <si>
     <t>№</t>
   </si>
@@ -411,9 +411,6 @@
     <t>Донецк</t>
   </si>
   <si>
-    <t>АФ-120-ОМ + ПЗШ-6 + ВД-1</t>
-  </si>
-  <si>
     <t>Василий</t>
   </si>
   <si>
@@ -636,9 +633,6 @@
     <t>Дочернее предприятие харьковской Техника Инжиниринг, торговля упаковочным оборудованием из Тайваня</t>
   </si>
   <si>
-    <t>Сам перезвонит</t>
-  </si>
-  <si>
     <t>ООО "Синтез-Харьков"</t>
   </si>
   <si>
@@ -750,9 +744,6 @@
     <t>Продать станок для полотенец</t>
   </si>
   <si>
-    <t>АФ-120-ОМ4</t>
-  </si>
-  <si>
     <t>068-719-94-32</t>
   </si>
   <si>
@@ -771,9 +762,6 @@
     <t>Игорь Юрьевич</t>
   </si>
   <si>
-    <t xml:space="preserve">095-846-43-80, 095-517-00-50 </t>
-  </si>
-  <si>
     <t>099-150-07-62/067-989-56-53</t>
   </si>
   <si>
@@ -834,9 +822,6 @@
     <t>13.07.2015*</t>
   </si>
   <si>
-    <t>Перезвон---Звонить по поводу пленки.  Ждать звонка; дой-паки - фирма Итак 574-04-07 (09), ориентировочно приедут 27, 28.07</t>
-  </si>
-  <si>
     <t>Дозатор весовой---Фасовка макарон</t>
   </si>
   <si>
@@ -1071,9 +1056,6 @@
     <t>21.07.2015*</t>
   </si>
   <si>
-    <t>Хочет брать, позвонит сам (звонили 21.07.2015, мб б\У)</t>
-  </si>
-  <si>
     <t>Не берет трубу--Выяснить готовность--Наберет сам, болеет---Позвонить</t>
   </si>
   <si>
@@ -1098,18 +1080,12 @@
     <t>057-757-51-72</t>
   </si>
   <si>
-    <t>Скажет когда приедет--Созвон</t>
-  </si>
-  <si>
     <t>Фасовка круп сахара</t>
   </si>
   <si>
     <t>К концу недели (24.07) обещал заплатить--Должно быть готово, Приедет на неделе---Узнать у Игоря---созвон</t>
   </si>
   <si>
-    <t>Лапин Владимир, Елена</t>
-  </si>
-  <si>
     <t>Фасовка порошка для чистки посуды в пакеты и пластиковые банки</t>
   </si>
   <si>
@@ -1143,9 +1119,6 @@
     <t>mintsevich@ukr.net</t>
   </si>
   <si>
-    <t>Созвон--Нужен ровный шов, показать в работе---ЮН должен позвонить в теч. Дня Володе---Созвон--Показать в работе</t>
-  </si>
-  <si>
     <t>Искать покупателей</t>
   </si>
   <si>
@@ -1215,9 +1188,6 @@
     <t>24.07 в цехе протестируют пленку--В процессе---Созвон насчет пленки, Закончить техзадание-- Выяснить у игоря ширину пакетп нахлеста и пленки---Позвонить по пленке</t>
   </si>
   <si>
-    <t>Напомнить про пленку--Ждем звонка--Позвонить, напомнить про макет рисунка--Позвонит сам когда закажет пленку</t>
-  </si>
-  <si>
     <t>Бабицкий Игорь Анатольевич</t>
   </si>
   <si>
@@ -1230,9 +1200,6 @@
     <t>067-285-91-21</t>
   </si>
   <si>
-    <t>Срочно--Возможно сотрудничество</t>
-  </si>
-  <si>
     <t>Хмельник</t>
   </si>
   <si>
@@ -1248,18 +1215,12 @@
     <t>Если не найдут дешевле, закажут у нас--Посмотрят, позвонят--Позвонить, сообщить о цене</t>
   </si>
   <si>
-    <t>Не берет трубку---Посмотрит АФ-120-ОМ</t>
-  </si>
-  <si>
     <t>Наберет сам--Привезет пленку для тестов--Показать ПАФ-20В--Может взять наш полуавтомат</t>
   </si>
   <si>
     <t>050-458-23-10</t>
   </si>
   <si>
-    <t>Посмотрит запайщики</t>
-  </si>
-  <si>
     <t>Soldatov-al@mail.ru</t>
   </si>
   <si>
@@ -1288,6 +1249,48 @@
   </si>
   <si>
     <t>В цехе должны оценить возможность фасовки и цену, позвонить Петру Михайловичу  ---Пришлют хар. жидкости, Выяснить возможность фасовки кислот на ДЖМ, фасовки пены</t>
+  </si>
+  <si>
+    <t>Приедет в четверг--Скажет когда приедет--Созвон</t>
+  </si>
+  <si>
+    <t>Приедет с 30.07 по 05.08---Звонить по поводу пленки.  Ждать звонка; дой-паки - фирма Итак 574-04-07 (09), ориентировочно приедут 27, 28.07</t>
+  </si>
+  <si>
+    <t>АФ-120-ОМ4 + ПЗШ-6 без устройства впайки штуцеров + ВД-1</t>
+  </si>
+  <si>
+    <t>Вышлет макет и пленку 59998020934256--Напомнить про пленку--Ждем звонка--Позвонить, напомнить про макет рисунка--Позвонит сам когда закажет пленку</t>
+  </si>
+  <si>
+    <t>Просчитывают бизнес, ждем звонка (27.07)---Посмотрит АФ-120-ОМ</t>
+  </si>
+  <si>
+    <t>Установить сотрудничество по взаимным продажам--Скидка 1500--Срочно--Возможно сотрудничество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">095-846-43-80, 099-673-45-44, 095-517-00-50 </t>
+  </si>
+  <si>
+    <t>Лапин Владимир, Игорь, Елена</t>
+  </si>
+  <si>
+    <t>Искать покупателей пленки--Сам перезвонит</t>
+  </si>
+  <si>
+    <t>передал СКФ--Посмотрит запайщики</t>
+  </si>
+  <si>
+    <t>2 пары губок на еврошов</t>
+  </si>
+  <si>
+    <t>К следующему тендеру созвон--Нужен ровный шов, показать в работе---ЮН должен позвонить в теч. Дня Володе---Созвон--Показать в работе</t>
+  </si>
+  <si>
+    <t>АФ-120-ОМ2</t>
+  </si>
+  <si>
+    <t>Считает бизнес (27.07)--Хочет брать, позвонит сам (звонили 21.07.2015, мб б\У)</t>
   </si>
 </sst>
 </file>
@@ -2090,6 +2093,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2117,26 +2135,39 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="170">
+  <dxfs count="153">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2519,375 +2550,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5357"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4264,6 +3926,125 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -4518,6 +4299,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -4687,6 +4487,90 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5357"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4712,107 +4596,107 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:R36" totalsRowShown="0" headerRowDxfId="169" dataDxfId="167" headerRowBorderDxfId="168">
-  <autoFilter ref="A1:R36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:R37" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139">
+  <autoFilter ref="A1:R37"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Телефон" dataDxfId="166"/>
-    <tableColumn id="2" name="Напоминание" dataDxfId="165"/>
-    <tableColumn id="3" name="Ф.И.О." dataDxfId="164"/>
-    <tableColumn id="4" name="Наше предложение" dataDxfId="163"/>
-    <tableColumn id="5" name="Статус" dataDxfId="162"/>
-    <tableColumn id="6" name="Почта" dataDxfId="161"/>
-    <tableColumn id="7" name="Цена" dataDxfId="97"/>
-    <tableColumn id="8" name="Город" dataDxfId="160"/>
-    <tableColumn id="9" name="Задача" dataDxfId="159"/>
-    <tableColumn id="10" name="Особенности" dataDxfId="158"/>
-    <tableColumn id="11" name="Дата контакта" dataDxfId="157"/>
-    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="156"/>
-    <tableColumn id="13" name="Код УТ" dataDxfId="155"/>
-    <tableColumn id="14" name="Дата выполнения" dataDxfId="154"/>
-    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="153"/>
-    <tableColumn id="16" name="Фирма" dataDxfId="152"/>
-    <tableColumn id="17" name="№" dataDxfId="151"/>
-    <tableColumn id="18" name="Как узнали?" dataDxfId="150"/>
+    <tableColumn id="1" name="Телефон" dataDxfId="137"/>
+    <tableColumn id="2" name="Напоминание" dataDxfId="136"/>
+    <tableColumn id="3" name="Ф.И.О." dataDxfId="135"/>
+    <tableColumn id="4" name="Наше предложение" dataDxfId="134"/>
+    <tableColumn id="5" name="Статус" dataDxfId="133"/>
+    <tableColumn id="6" name="Почта" dataDxfId="132"/>
+    <tableColumn id="7" name="Цена" dataDxfId="131"/>
+    <tableColumn id="8" name="Город" dataDxfId="130"/>
+    <tableColumn id="9" name="Задача" dataDxfId="129"/>
+    <tableColumn id="10" name="Особенности" dataDxfId="128"/>
+    <tableColumn id="11" name="Дата контакта" dataDxfId="127"/>
+    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="126"/>
+    <tableColumn id="13" name="Код УТ" dataDxfId="125"/>
+    <tableColumn id="14" name="Дата выполнения" dataDxfId="124"/>
+    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="123"/>
+    <tableColumn id="16" name="Фирма" dataDxfId="122"/>
+    <tableColumn id="17" name="№" dataDxfId="121"/>
+    <tableColumn id="18" name="Как узнали?" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R15" totalsRowShown="0" dataDxfId="149" tableBorderDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R15" totalsRowShown="0" dataDxfId="102" tableBorderDxfId="101">
   <tableColumns count="18">
-    <tableColumn id="1" name="Телефон" dataDxfId="147"/>
-    <tableColumn id="2" name="Напоминание" dataDxfId="146"/>
-    <tableColumn id="3" name="Ф.И.О." dataDxfId="145"/>
-    <tableColumn id="4" name="Наше предложение" dataDxfId="144"/>
-    <tableColumn id="5" name="Статус" dataDxfId="143"/>
-    <tableColumn id="6" name="Почта" dataDxfId="142"/>
-    <tableColumn id="7" name="Цена" dataDxfId="141"/>
-    <tableColumn id="8" name="Город" dataDxfId="140"/>
-    <tableColumn id="9" name="Задача" dataDxfId="139"/>
-    <tableColumn id="10" name="Особенности" dataDxfId="138"/>
-    <tableColumn id="11" name="Дата контакта" dataDxfId="137"/>
-    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="136"/>
-    <tableColumn id="13" name="Код УТ" dataDxfId="135"/>
-    <tableColumn id="14" name="Дата выполнения" dataDxfId="134"/>
-    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="133"/>
-    <tableColumn id="16" name="Фирма" dataDxfId="132"/>
-    <tableColumn id="17" name="№" dataDxfId="131"/>
-    <tableColumn id="18" name="Как узнали?" dataDxfId="130"/>
+    <tableColumn id="1" name="Телефон" dataDxfId="100"/>
+    <tableColumn id="2" name="Напоминание" dataDxfId="99"/>
+    <tableColumn id="3" name="Ф.И.О." dataDxfId="98"/>
+    <tableColumn id="4" name="Наше предложение" dataDxfId="97"/>
+    <tableColumn id="5" name="Статус" dataDxfId="96"/>
+    <tableColumn id="6" name="Почта" dataDxfId="95"/>
+    <tableColumn id="7" name="Цена" dataDxfId="94"/>
+    <tableColumn id="8" name="Город" dataDxfId="93"/>
+    <tableColumn id="9" name="Задача" dataDxfId="92"/>
+    <tableColumn id="10" name="Особенности" dataDxfId="91"/>
+    <tableColumn id="11" name="Дата контакта" dataDxfId="90"/>
+    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="89"/>
+    <tableColumn id="13" name="Код УТ" dataDxfId="88"/>
+    <tableColumn id="14" name="Дата выполнения" dataDxfId="87"/>
+    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="86"/>
+    <tableColumn id="16" name="Фирма" dataDxfId="85"/>
+    <tableColumn id="17" name="№" dataDxfId="84"/>
+    <tableColumn id="18" name="Как узнали?" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A3:T22" totalsRowShown="0" headerRowDxfId="129" dataDxfId="127" headerRowBorderDxfId="128" tableBorderDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A3:T22" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79">
   <tableColumns count="20">
-    <tableColumn id="1" name="Столбец1" dataDxfId="125">
+    <tableColumn id="1" name="Столбец1" dataDxfId="78">
       <calculatedColumnFormula>Заказы!M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Столбец2" dataDxfId="124">
+    <tableColumn id="2" name="Столбец2" dataDxfId="77">
       <calculatedColumnFormula>Заказы!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Столбец3" dataDxfId="123">
+    <tableColumn id="3" name="Столбец3" dataDxfId="76">
       <calculatedColumnFormula>Заказы!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Столбец4" dataDxfId="122">
+    <tableColumn id="4" name="Столбец4" dataDxfId="75">
       <calculatedColumnFormula>CONCATENATE(Заказы!C2," ",Заказы!P2," ",Заказы!A2," ",Заказы!F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Столбец5" dataDxfId="121">
+    <tableColumn id="5" name="Столбец5" dataDxfId="74">
       <calculatedColumnFormula>Заказы!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Столбец6" dataDxfId="120"/>
-    <tableColumn id="7" name="Столбец7" dataDxfId="119"/>
-    <tableColumn id="8" name="Столбец8" dataDxfId="118">
+    <tableColumn id="6" name="Столбец6" dataDxfId="73"/>
+    <tableColumn id="7" name="Столбец7" dataDxfId="72"/>
+    <tableColumn id="8" name="Столбец8" dataDxfId="71">
       <calculatedColumnFormula>'Таблица-отчет'!$E4-'Таблица-отчет'!$G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Столбец9" dataDxfId="117"/>
-    <tableColumn id="10" name="Столбец10" dataDxfId="116">
+    <tableColumn id="9" name="Столбец9" dataDxfId="70"/>
+    <tableColumn id="10" name="Столбец10" dataDxfId="69">
       <calculatedColumnFormula>E4*I4-G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Столбец11" dataDxfId="115">
+    <tableColumn id="11" name="Столбец11" dataDxfId="68">
       <calculatedColumnFormula>H4-J4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Столбец12" dataDxfId="114"/>
-    <tableColumn id="13" name="Столбец13" dataDxfId="113">
+    <tableColumn id="12" name="Столбец12" dataDxfId="67"/>
+    <tableColumn id="13" name="Столбец13" dataDxfId="66">
       <calculatedColumnFormula>L4/H4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Столбец14" dataDxfId="112">
+    <tableColumn id="14" name="Столбец14" dataDxfId="65">
       <calculatedColumnFormula>Заказы!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Столбец15" dataDxfId="111"/>
-    <tableColumn id="16" name="Столбец16" dataDxfId="110"/>
-    <tableColumn id="17" name="Столбец17" dataDxfId="109">
+    <tableColumn id="15" name="Столбец15" dataDxfId="64"/>
+    <tableColumn id="16" name="Столбец16" dataDxfId="63"/>
+    <tableColumn id="17" name="Столбец17" dataDxfId="62">
       <calculatedColumnFormula>H4-L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Столбец18" dataDxfId="108">
+    <tableColumn id="18" name="Столбец18" dataDxfId="61">
       <calculatedColumnFormula>J4-O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Столбец19" dataDxfId="107">
+    <tableColumn id="19" name="Столбец19" dataDxfId="60">
       <calculatedColumnFormula>K4-P4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Столбец20" dataDxfId="106">
+    <tableColumn id="20" name="Столбец20" dataDxfId="59">
       <calculatedColumnFormula>Заказы!E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5110,13 +4994,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5186,7 +5070,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P1" s="47" t="s">
         <v>1</v>
@@ -5200,32 +5084,32 @@
     </row>
     <row r="2" spans="1:22" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G2" s="54"/>
       <c r="H2" s="54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J2" s="54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K2" s="53">
         <v>42192</v>
@@ -5252,7 +5136,7 @@
         <v>76</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>73</v>
@@ -5283,7 +5167,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>79</v>
@@ -5292,7 +5176,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F4" s="95" t="s">
         <v>81</v>
@@ -5328,7 +5212,7 @@
         <v>88</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>51</v>
@@ -5359,19 +5243,19 @@
     </row>
     <row r="6" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="53">
-        <v>42205</v>
+        <v>42215</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>125</v>
+        <v>407</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>266</v>
+        <v>406</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>123</v>
@@ -5381,7 +5265,7 @@
         <v>124</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="53">
@@ -5402,30 +5286,30 @@
     </row>
     <row r="7" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="F7" s="52" t="s">
         <v>152</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>153</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
       <c r="I7" s="54" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K7" s="53">
         <v>42191</v>
@@ -5452,7 +5336,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F8" s="52" t="s">
         <v>44</v>
@@ -5484,23 +5368,23 @@
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D9" s="54"/>
       <c r="E9" s="54" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F9" s="52"/>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="I9" s="54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J9" s="54"/>
       <c r="K9" s="53">
@@ -5516,27 +5400,27 @@
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" s="53">
         <v>42212</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="I10" s="54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J10" s="54"/>
       <c r="K10" s="53">
@@ -5555,7 +5439,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>53</v>
@@ -5564,7 +5448,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F11" s="52" t="s">
         <v>56</v>
@@ -5594,34 +5478,34 @@
     </row>
     <row r="12" spans="1:22" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>245</v>
+        <v>411</v>
       </c>
       <c r="B12" s="53">
         <v>42212</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" s="54">
         <v>41000</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K12" s="53">
         <v>42129</v>
@@ -5634,31 +5518,31 @@
       <c r="Q12" s="54"/>
       <c r="R12" s="54"/>
     </row>
-    <row r="13" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B13" s="53">
-        <v>42206</v>
+        <v>42211</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>345</v>
+        <v>418</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J13" s="54"/>
       <c r="K13" s="53">
@@ -5674,32 +5558,32 @@
     </row>
     <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B14" s="53">
         <v>42188</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54" t="s">
         <v>54</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K14" s="53">
         <v>42171</v>
@@ -5709,7 +5593,7 @@
       <c r="N14" s="54"/>
       <c r="O14" s="54"/>
       <c r="P14" s="52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="54"/>
       <c r="R14" s="54"/>
@@ -5719,7 +5603,7 @@
         <v>66</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>65</v>
@@ -5728,7 +5612,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F15" s="52"/>
       <c r="G15" s="54"/>
@@ -5752,29 +5636,29 @@
     </row>
     <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C16" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="54" t="s">
         <v>255</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>259</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="52" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J16" s="52"/>
       <c r="K16" s="53">
@@ -5790,23 +5674,23 @@
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="54" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="54"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J17" s="52"/>
       <c r="K17" s="53">
@@ -5822,15 +5706,15 @@
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B18" s="58"/>
       <c r="C18" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="54" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F18" s="58"/>
       <c r="G18" s="58"/>
@@ -5838,10 +5722,10 @@
         <v>60</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J18" s="52" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K18" s="61">
         <v>42200</v>
@@ -5856,29 +5740,29 @@
     </row>
     <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B19" s="61">
         <v>42216</v>
       </c>
       <c r="C19" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="58" t="s">
         <v>290</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>295</v>
       </c>
       <c r="G19" s="58"/>
       <c r="H19" s="60" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J19" s="52"/>
       <c r="K19" s="61">
@@ -5894,30 +5778,30 @@
     </row>
     <row r="20" spans="1:18" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G20" s="58"/>
       <c r="H20" s="60"/>
       <c r="I20" s="52" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J20" s="52" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K20" s="61">
         <v>42200</v>
@@ -5930,29 +5814,29 @@
       <c r="Q20" s="54"/>
       <c r="R20" s="58"/>
     </row>
-    <row r="21" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B21" s="61">
-        <v>42212</v>
+        <v>42274</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="F21" s="58" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G21" s="58"/>
       <c r="H21" s="60"/>
       <c r="I21" s="52" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J21" s="52"/>
       <c r="K21" s="61">
@@ -5968,29 +5852,29 @@
     </row>
     <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B22" s="61">
-        <v>42210</v>
+        <v>42214</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="F22" s="58" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G22" s="58"/>
       <c r="H22" s="60" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I22" s="52" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J22" s="52"/>
       <c r="K22" s="61">
@@ -6010,21 +5894,21 @@
         <v>42205</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="54" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F23" s="58" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="60" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="61">
@@ -6040,29 +5924,29 @@
     </row>
     <row r="24" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B24" s="61">
         <v>42213</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F24" s="58" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G24" s="58"/>
       <c r="H24" s="60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I24" s="52" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="J24" s="52"/>
       <c r="K24" s="61">
@@ -6078,29 +5962,29 @@
     </row>
     <row r="25" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B25" s="61">
         <v>42209</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G25" s="60"/>
       <c r="H25" s="60" t="s">
         <v>60</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="J25" s="54"/>
       <c r="K25" s="61">
@@ -6116,27 +6000,27 @@
     </row>
     <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="61">
         <v>42214</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="58"/>
       <c r="H26" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J26" s="54"/>
       <c r="K26" s="61">
@@ -6147,39 +6031,39 @@
       <c r="N26" s="54"/>
       <c r="O26" s="58"/>
       <c r="P26" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="59"/>
       <c r="R26" s="58"/>
     </row>
     <row r="27" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B27" s="61">
         <v>42212</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F27" s="58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="J27" s="54" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K27" s="61">
         <v>42160</v>
@@ -6194,27 +6078,27 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B28" s="61">
         <v>42223</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="58" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G28" s="58"/>
       <c r="H28" s="58" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I28" s="54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J28" s="54"/>
       <c r="K28" s="61">
@@ -6230,22 +6114,22 @@
     </row>
     <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="61">
         <v>42212</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="54"/>
       <c r="E29" s="54" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
       <c r="H29" s="58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I29" s="54"/>
       <c r="J29" s="54"/>
@@ -6255,30 +6139,30 @@
       <c r="N29" s="54"/>
       <c r="O29" s="58"/>
       <c r="P29" s="54" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="Q29" s="59"/>
       <c r="R29" s="58"/>
     </row>
     <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B30" s="61">
         <v>42231</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D30" s="54"/>
       <c r="E30" s="54" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
       <c r="H30" s="58"/>
       <c r="I30" s="54" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J30" s="54"/>
       <c r="K30" s="58"/>
@@ -6290,29 +6174,29 @@
       <c r="Q30" s="59"/>
       <c r="R30" s="58"/>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B31" s="61">
         <v>42212</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D31" s="54"/>
       <c r="E31" s="54" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F31" s="58" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G31" s="58"/>
       <c r="H31" s="58" t="s">
         <v>60</v>
       </c>
       <c r="I31" s="54" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J31" s="54"/>
       <c r="K31" s="61">
@@ -6328,25 +6212,25 @@
     </row>
     <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B32" s="53">
-        <v>42210</v>
+        <v>42212</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D32" s="54"/>
       <c r="E32" s="54" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="54"/>
       <c r="H32" s="54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I32" s="54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J32" s="54"/>
       <c r="K32" s="54"/>
@@ -6360,29 +6244,29 @@
     </row>
     <row r="33" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="129" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B33" s="113">
         <v>42213</v>
       </c>
       <c r="C33" s="114" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D33" s="115" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E33" s="115" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F33" s="129" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G33" s="116"/>
       <c r="H33" s="116" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="I33" s="115" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J33" s="114"/>
       <c r="K33" s="113">
@@ -6398,21 +6282,21 @@
     </row>
     <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="125" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B34" s="125"/>
       <c r="C34" s="126" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D34" s="54"/>
       <c r="E34" s="54" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F34" s="125"/>
       <c r="G34" s="125"/>
       <c r="H34" s="125"/>
       <c r="I34" s="54" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J34" s="126"/>
       <c r="K34" s="127">
@@ -6426,77 +6310,101 @@
       <c r="Q34" s="125"/>
       <c r="R34" s="125"/>
     </row>
-    <row r="35" spans="1:18" s="117" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="139" t="s">
-        <v>397</v>
-      </c>
-      <c r="B35" s="142">
+    <row r="35" spans="1:18" s="117" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="130" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" s="133">
+        <v>42213</v>
+      </c>
+      <c r="C35" s="131" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="132" t="s">
+        <v>410</v>
+      </c>
+      <c r="F35" s="130" t="s">
+        <v>386</v>
+      </c>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130" t="s">
+        <v>388</v>
+      </c>
+      <c r="I35" s="132" t="s">
+        <v>385</v>
+      </c>
+      <c r="J35" s="131"/>
+      <c r="K35" s="133">
+        <v>42209</v>
+      </c>
+      <c r="L35" s="130"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+    </row>
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="130" t="s">
+        <v>394</v>
+      </c>
+      <c r="B36" s="133">
         <v>42212</v>
       </c>
-      <c r="C35" s="140" t="s">
-        <v>394</v>
-      </c>
-      <c r="D35" s="141" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="141" t="s">
-        <v>398</v>
-      </c>
-      <c r="F35" s="139" t="s">
+      <c r="C36" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="F36" s="130" t="s">
+        <v>395</v>
+      </c>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="132" t="s">
         <v>396</v>
       </c>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139" t="s">
-        <v>399</v>
-      </c>
-      <c r="I35" s="141" t="s">
-        <v>395</v>
-      </c>
-      <c r="J35" s="140"/>
-      <c r="K35" s="142">
+      <c r="J36" s="131"/>
+      <c r="K36" s="133">
         <v>42209</v>
       </c>
-      <c r="L35" s="139"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="139"/>
-      <c r="P35" s="140"/>
-      <c r="Q35" s="139"/>
-      <c r="R35" s="139"/>
-    </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="139" t="s">
-        <v>406</v>
-      </c>
-      <c r="B36" s="142">
+      <c r="L36" s="130"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="130"/>
+      <c r="B37" s="133">
         <v>42212</v>
       </c>
-      <c r="C36" s="140" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141" t="s">
-        <v>407</v>
-      </c>
-      <c r="F36" s="139" t="s">
-        <v>408</v>
-      </c>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="141" t="s">
-        <v>409</v>
-      </c>
-      <c r="J36" s="140"/>
-      <c r="K36" s="142">
-        <v>42209</v>
-      </c>
-      <c r="L36" s="139"/>
-      <c r="M36" s="141"/>
-      <c r="N36" s="141"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="140"/>
-      <c r="Q36" s="139"/>
-      <c r="R36" s="139"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="J37" s="131"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="130"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="130"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="130"/>
+      <c r="R37" s="130"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6512,44 +6420,44 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B1 B33:B1048576">
-    <cfRule type="timePeriod" dxfId="83" priority="19" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="152" priority="19" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="82" priority="20" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="151" priority="20" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="81" priority="21" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="150" priority="21" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B36">
-    <cfRule type="endsWith" dxfId="80" priority="11" operator="endsWith" text="*">
+  <conditionalFormatting sqref="B2:B37">
+    <cfRule type="endsWith" dxfId="149" priority="11" operator="endsWith" text="*">
       <formula>RIGHT(B2,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="79" priority="12" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="148" priority="12" timePeriod="today">
       <formula>FLOOR(B2,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="78" priority="13" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="147" priority="13" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B2,1)&lt;=6,FLOOR(B2,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="77" priority="14" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="146" priority="14" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="76" priority="1" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="145" priority="1" operator="beginsWith" text="068">
       <formula>LEFT(A1,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="75" priority="2" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="144" priority="2" operator="beginsWith" text="098">
       <formula>LEFT(A1,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="3" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="143" priority="3" operator="beginsWith" text="097">
       <formula>LEFT(A1,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="73" priority="4" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="142" priority="4" operator="beginsWith" text="096">
       <formula>LEFT(A1,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="72" priority="6" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="141" priority="6" operator="beginsWith" text="067">
       <formula>LEFT(A1,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6569,10 +6477,10 @@
   <dimension ref="A1:R211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6641,7 +6549,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P1" s="24" t="s">
         <v>1</v>
@@ -6655,22 +6563,22 @@
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1" ht="46.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="111">
         <v>42212</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D2" s="112" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="112" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F2" s="110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="112">
         <v>105600</v>
@@ -6679,46 +6587,46 @@
         <v>54</v>
       </c>
       <c r="I2" s="112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J2" s="112"/>
       <c r="K2" s="111">
         <v>42158</v>
       </c>
       <c r="L2" s="111" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M2" s="112">
         <v>2592</v>
       </c>
       <c r="N2" s="112" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O2" s="112"/>
       <c r="P2" s="110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="112"/>
       <c r="R2" s="112"/>
     </row>
     <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="53">
         <v>42212</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>64</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="54">
         <v>5400</v>
@@ -6727,10 +6635,10 @@
         <v>60</v>
       </c>
       <c r="I3" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K3" s="53">
         <v>42133</v>
@@ -6746,7 +6654,7 @@
       </c>
       <c r="O3" s="54"/>
       <c r="P3" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="54">
         <v>148</v>
@@ -6755,7 +6663,7 @@
     </row>
     <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B4" s="53">
         <v>42210</v>
@@ -6767,10 +6675,10 @@
         <v>71</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="G4" s="54">
         <v>80200</v>
@@ -6792,7 +6700,7 @@
         <v>2405</v>
       </c>
       <c r="N4" s="54" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O4" s="54"/>
       <c r="P4" s="52"/>
@@ -6813,7 +6721,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>39</v>
@@ -6828,7 +6736,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K5" s="53">
         <v>42177</v>
@@ -6853,28 +6761,28 @@
     </row>
     <row r="6" spans="1:18" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="53">
-        <v>42209</v>
+        <v>42216</v>
       </c>
       <c r="C6" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>143</v>
-      </c>
       <c r="E6" s="54" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="54">
         <v>55920</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
@@ -6899,31 +6807,31 @@
     </row>
     <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B7" s="98">
-        <v>42210</v>
+        <v>42212</v>
       </c>
       <c r="C7" s="99" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G7" s="101">
         <v>233000</v>
       </c>
       <c r="H7" s="100" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J7" s="99"/>
       <c r="K7" s="98">
@@ -6933,14 +6841,14 @@
         <v>42209</v>
       </c>
       <c r="M7" s="54" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="N7" s="53">
         <v>42250</v>
       </c>
       <c r="O7" s="101"/>
       <c r="P7" s="128" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="102"/>
       <c r="R7" s="58"/>
@@ -10937,61 +10845,61 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B1:B6 B8:B1048576">
-    <cfRule type="endsWith" dxfId="71" priority="22" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="119" priority="22" operator="endsWith" text="*">
       <formula>RIGHT(B1,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="70" priority="24" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="118" priority="24" timePeriod="today">
       <formula>FLOOR(B1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="69" priority="25" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="117" priority="25" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="68" priority="26" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="116" priority="26" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="endsWith" dxfId="67" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="115" priority="10" operator="endsWith" text="*">
       <formula>RIGHT(B7,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="66" priority="11" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="114" priority="11" timePeriod="today">
       <formula>FLOOR(B7,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="65" priority="12" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="113" priority="12" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B7,1)&lt;=6,FLOOR(B7,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="64" priority="13" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="112" priority="13" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B7,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B7,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="endsWith" dxfId="63" priority="6" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="111" priority="6" operator="endsWith" text="*">
       <formula>RIGHT(B7,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="62" priority="7" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="110" priority="7" timePeriod="today">
       <formula>FLOOR(B7,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="61" priority="8" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="109" priority="8" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B7,1)&lt;=6,FLOOR(B7,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="60" priority="9" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="108" priority="9" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B7,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B7,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="beginsWith" dxfId="59" priority="1" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="107" priority="1" operator="beginsWith" text="068">
       <formula>LEFT(A7,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="2" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="106" priority="2" operator="beginsWith" text="098">
       <formula>LEFT(A7,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="3" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="105" priority="3" operator="beginsWith" text="097">
       <formula>LEFT(A7,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="4" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="104" priority="4" operator="beginsWith" text="096">
       <formula>LEFT(A7,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="55" priority="5" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="103" priority="5" operator="beginsWith" text="067">
       <formula>LEFT(A7,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11011,10 +10919,10 @@
   <dimension ref="A1:U237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="N5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11036,72 +10944,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="136" t="s">
+      <c r="J1" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="132" t="s">
+      <c r="K1" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="132" t="s">
+      <c r="L1" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132" t="s">
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="132" t="s">
+      <c r="R1" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="138"/>
-      <c r="T1" s="134" t="s">
+      <c r="S1" s="143"/>
+      <c r="T1" s="139" t="s">
         <v>11</v>
       </c>
       <c r="U1" s="10"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="133"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="138"/>
       <c r="L2" s="92" t="s">
         <v>24</v>
       </c>
@@ -11117,14 +11025,14 @@
       <c r="P2" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="133"/>
+      <c r="Q2" s="138"/>
       <c r="R2" s="92" t="s">
         <v>21</v>
       </c>
       <c r="S2" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="135"/>
+      <c r="T2" s="140"/>
       <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11259,7 +11167,7 @@
       </c>
       <c r="T4" s="77" t="str">
         <f>Заказы!E2</f>
-        <v>Напомнить про пленку--Ждем звонка--Позвонить, напомнить про макет рисунка--Позвонит сам когда закажет пленку</v>
+        <v>Вышлет макет и пленку 59998020934256--Напомнить про пленку--Ждем звонка--Позвонить, напомнить про макет рисунка--Позвонит сам когда закажет пленку</v>
       </c>
       <c r="U4" s="10"/>
     </row>
@@ -11336,7 +11244,7 @@
       </c>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="71">
         <f>Заказы!M4</f>
         <v>2405</v>
@@ -11461,7 +11369,7 @@
         <v>42185</v>
       </c>
       <c r="O7" s="78">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="P7" s="78">
         <v>15000</v>
@@ -11472,7 +11380,7 @@
       </c>
       <c r="R7" s="71">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S7" s="71">
         <f t="shared" si="6"/>
@@ -11484,7 +11392,7 @@
       </c>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <f>Заказы!M6</f>
         <v>2096</v>
@@ -16269,13 +16177,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="124" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C1" s="124" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D1" s="124" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E1" s="124" t="s">
         <v>36</v>
@@ -16307,7 +16215,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16375,7 +16283,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P1" s="119" t="s">
         <v>1</v>
@@ -16389,22 +16297,22 @@
     </row>
     <row r="2" spans="1:19" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="15">
+        <v>42212</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B2" s="15">
-        <v>42199</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="K2" s="15">
         <v>42185</v>
@@ -16412,16 +16320,16 @@
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="K3" s="15">
         <v>42171</v>
@@ -16490,38 +16398,38 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B5:B9 B11:B1048576 B2">
-    <cfRule type="timePeriod" dxfId="54" priority="9" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="58" priority="9" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="53" priority="10" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="57" priority="10" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B2,1)&lt;=6,FLOOR(B2,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="endsWith" dxfId="52" priority="5" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="56" priority="5" operator="endsWith" text="*">
       <formula>RIGHT(B1,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="51" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="55" priority="6" timePeriod="today">
       <formula>FLOOR(B1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="50" priority="7" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="54" priority="7" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="49" priority="8" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="53" priority="8" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="endsWith" dxfId="48" priority="1" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="52" priority="1" operator="endsWith" text="*">
       <formula>RIGHT(B4,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="47" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="51" priority="2" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="46" priority="3" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="50" priority="3" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B4,1)&lt;=6,FLOOR(B4,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="45" priority="4" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="49" priority="4" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16538,7 +16446,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16558,140 +16466,140 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="3">
         <v>674707276</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G3" s="3">
         <v>662290411</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -16708,7 +16616,7 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1">
-    <cfRule type="timePeriod" dxfId="44" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="48" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16754,10 +16662,10 @@
   <sheetData>
     <row r="1" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>5</v>
@@ -16802,7 +16710,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R1" s="22" t="s">
         <v>1</v>
@@ -16815,7 +16723,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="143">
+      <c r="A2" s="134">
         <f>I2*B2</f>
         <v>520</v>
       </c>
@@ -16825,13 +16733,13 @@
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
       <c r="E2" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="31">
@@ -16867,7 +16775,7 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="29" t="s">
@@ -16877,10 +16785,10 @@
         <v>120</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" s="31">
         <v>157900</v>
@@ -16889,7 +16797,7 @@
         <v>49</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="30">
@@ -16924,20 +16832,20 @@
         <v>0.1</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I4" s="31">
         <v>5200</v>
@@ -16953,13 +16861,13 @@
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
       <c r="R4" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="143">
+      <c r="A5" s="134">
         <f>I5*B5</f>
         <v>420</v>
       </c>
@@ -16977,7 +16885,7 @@
         <v>64</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>63</v>
@@ -17031,72 +16939,72 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="D1">
-    <cfRule type="endsWith" dxfId="43" priority="29" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="47" priority="29" operator="endsWith" text="*">
       <formula>RIGHT(D1,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="42" priority="30" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="46" priority="30" timePeriod="today">
       <formula>FLOOR(D1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="41" priority="31" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="45" priority="31" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D1,1)&lt;=6,FLOOR(D1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="40" priority="32" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="44" priority="32" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="endsWith" dxfId="39" priority="25" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="43" priority="25" operator="endsWith" text="*">
       <formula>RIGHT(D2,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="38" priority="26" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="42" priority="26" timePeriod="today">
       <formula>FLOOR(D2,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="37" priority="27" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="41" priority="27" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D2,1)&lt;=6,FLOOR(D2,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="36" priority="28" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="40" priority="28" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="endsWith" dxfId="35" priority="21" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="39" priority="21" operator="endsWith" text="*">
       <formula>RIGHT(D3,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="34" priority="22" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="38" priority="22" timePeriod="today">
       <formula>FLOOR(D3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="33" priority="23" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="37" priority="23" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D3,1)&lt;=6,FLOOR(D3,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="32" priority="24" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="36" priority="24" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D3,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D3,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="endsWith" dxfId="31" priority="17" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="35" priority="17" operator="endsWith" text="*">
       <formula>RIGHT(D4,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="30" priority="18" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="34" priority="18" timePeriod="today">
       <formula>FLOOR(D4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="29" priority="19" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="33" priority="19" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D4,1)&lt;=6,FLOOR(D4,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="28" priority="20" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="32" priority="20" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="endsWith" dxfId="27" priority="13" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="31" priority="13" operator="endsWith" text="*">
       <formula>RIGHT(D5,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="26" priority="14" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="30" priority="14" timePeriod="today">
       <formula>FLOOR(D5,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="25" priority="15" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="29" priority="15" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D5,1)&lt;=6,FLOOR(D5,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="24" priority="16" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="28" priority="16" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17175,7 +17083,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P1" s="22" t="s">
         <v>1</v>
@@ -17189,30 +17097,30 @@
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G2" s="28">
         <v>8500</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K2" s="27">
         <v>42194</v>
@@ -17231,16 +17139,16 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3" s="28">
         <v>16960</v>
@@ -17252,7 +17160,7 @@
         <v>115</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="27">
         <v>42188</v>
@@ -17269,25 +17177,25 @@
     </row>
     <row r="4" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="64" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J4" s="67"/>
       <c r="K4" s="67"/>
@@ -17301,30 +17209,30 @@
     </row>
     <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="63" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G5" s="68"/>
       <c r="H5" s="69" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K5" s="66">
         <v>42200</v>
@@ -17339,27 +17247,27 @@
     </row>
     <row r="6" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" s="67" t="s">
         <v>302</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>307</v>
       </c>
       <c r="G6" s="68"/>
       <c r="H6" s="69" t="s">
         <v>60</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J6" s="63"/>
       <c r="K6" s="66">
@@ -17370,7 +17278,7 @@
       <c r="N6" s="64"/>
       <c r="O6" s="67"/>
       <c r="P6" s="64" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="64"/>
       <c r="R6" s="70"/>
@@ -17389,86 +17297,86 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B1">
-    <cfRule type="endsWith" dxfId="23" priority="21" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="27" priority="21" operator="endsWith" text="*">
       <formula>RIGHT(B1,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="22" priority="22" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="26" priority="22" timePeriod="today">
       <formula>FLOOR(B1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="21" priority="23" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="25" priority="23" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="20" priority="24" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="24" priority="24" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="endsWith" dxfId="19" priority="17" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="23" priority="17" operator="endsWith" text="*">
       <formula>RIGHT(B2,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="18" priority="18" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="22" priority="18" timePeriod="today">
       <formula>FLOOR(B2,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="17" priority="19" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="21" priority="19" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B2,1)&lt;=6,FLOOR(B2,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="16" priority="20" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="20" priority="20" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="endsWith" dxfId="15" priority="13" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="19" priority="13" operator="endsWith" text="*">
       <formula>RIGHT(B3,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="14" priority="14" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="18" priority="14" timePeriod="today">
       <formula>FLOOR(B3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="13" priority="15" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="17" priority="15" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B3,1)&lt;=6,FLOOR(B3,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="12" priority="16" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="16" priority="16" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B3,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B3,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="endsWith" dxfId="11" priority="9" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="15" priority="9" operator="endsWith" text="*">
       <formula>RIGHT(B4,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="10" priority="10" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="14" priority="10" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="9" priority="11" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="13" priority="11" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B4,1)&lt;=6,FLOOR(B4,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="8" priority="12" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="12" priority="12" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="endsWith" dxfId="7" priority="5" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="11" priority="5" operator="endsWith" text="*">
       <formula>RIGHT(B5,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="6" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="10" priority="6" timePeriod="today">
       <formula>FLOOR(B5,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="5" priority="7" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="9" priority="7" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B5,1)&lt;=6,FLOOR(B5,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="4" priority="8" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="8" priority="8" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="endsWith" dxfId="3" priority="1" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="7" priority="1" operator="endsWith" text="*">
       <formula>RIGHT(B6,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="2" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="6" priority="2" timePeriod="today">
       <formula>FLOOR(B6,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="3" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="5" priority="3" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B6,1)&lt;=6,FLOOR(B6,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="0" priority="4" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="4" priority="4" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B6,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B6,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
